--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-26 10:35:48</t>
+          <t>2025-10-26 14:32:42</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E8" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G8" t="n">
-        <v>19.47</v>
+        <v>19.5</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>9.06</v>
       </c>
       <c r="I8" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K8" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E10" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F10" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G10" t="n">
-        <v>20.17</v>
+        <v>19.85</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9.69</v>
       </c>
       <c r="I10" t="n">
-        <v>10.17</v>
+        <v>10.15</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>17.5</v>
+        <v>16.71</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8.57</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2381,68 +2381,68 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E15" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G15" t="n">
-        <v>14.73</v>
+        <v>14.83</v>
       </c>
       <c r="H15" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="I15" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40</v>
+      </c>
+      <c r="K15" t="n">
+        <v>49</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
-        <v>37</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E18" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F18" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G18" t="n">
-        <v>12.83</v>
+        <v>12.79</v>
       </c>
       <c r="H18" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="I18" t="n">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
       <c r="J18" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K18" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
         <v>8</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E19" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G19" t="n">
-        <v>19.15</v>
+        <v>18.64</v>
       </c>
       <c r="H19" t="n">
-        <v>8.460000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>10.69</v>
+        <v>10.36</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W19" t="n">
         <v>4</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F6" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G6" t="n">
-        <v>19.9</v>
+        <v>19.18</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>11.7</v>
+        <v>11.18</v>
       </c>
       <c r="J6" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K6" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4357,31 +4357,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E10" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>13.7</v>
+        <v>13.91</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="I10" t="n">
-        <v>7.1</v>
+        <v>7.36</v>
       </c>
       <c r="J10" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K10" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4630,31 +4630,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E13" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F13" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G13" t="n">
-        <v>22.5</v>
+        <v>22.33</v>
       </c>
       <c r="H13" t="n">
-        <v>11.36</v>
+        <v>11.27</v>
       </c>
       <c r="I13" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="J13" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K13" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E17" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F17" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G17" t="n">
-        <v>19.06</v>
+        <v>18.65</v>
       </c>
       <c r="H17" t="n">
-        <v>8.75</v>
+        <v>8.59</v>
       </c>
       <c r="I17" t="n">
-        <v>10.31</v>
+        <v>10.06</v>
       </c>
       <c r="J17" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E18" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G18" t="n">
-        <v>16.5</v>
+        <v>16.77</v>
       </c>
       <c r="H18" t="n">
-        <v>8.42</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.08</v>
+        <v>8.23</v>
       </c>
       <c r="J18" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K18" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E19" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F19" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G19" t="n">
-        <v>22.32</v>
+        <v>21.8</v>
       </c>
       <c r="H19" t="n">
-        <v>9.949999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="I19" t="n">
-        <v>12.37</v>
+        <v>12.05</v>
       </c>
       <c r="J19" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K19" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G21" t="n">
-        <v>15.9</v>
+        <v>15.55</v>
       </c>
       <c r="H21" t="n">
-        <v>7.4</v>
+        <v>7.27</v>
       </c>
       <c r="I21" t="n">
-        <v>8.5</v>
+        <v>8.27</v>
       </c>
       <c r="J21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>342</v>
+      </c>
+      <c r="E22" t="n">
+        <v>147</v>
+      </c>
+      <c r="F22" t="n">
+        <v>195</v>
+      </c>
+      <c r="G22" t="n">
         <v>18</v>
       </c>
-      <c r="D22" t="n">
-        <v>326</v>
-      </c>
-      <c r="E22" t="n">
-        <v>141</v>
-      </c>
-      <c r="F22" t="n">
-        <v>185</v>
-      </c>
-      <c r="G22" t="n">
-        <v>18.11</v>
-      </c>
       <c r="H22" t="n">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="I22" t="n">
-        <v>10.28</v>
+        <v>10.26</v>
       </c>
       <c r="J22" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K22" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-26 14:32:42</t>
+          <t>2025-10-27 12:30:02</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 12:30:02</t>
+          <t>2025-10-27 13:57:07</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 13:57:07</t>
+          <t>2025-10-27 16:08:17</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 16:08:17</t>
+          <t>2025-10-27 16:27:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E9" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F9" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G9" t="n">
-        <v>16.22</v>
+        <v>16.53</v>
       </c>
       <c r="H9" t="n">
-        <v>8.609999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>7.61</v>
+        <v>7.63</v>
       </c>
       <c r="J9" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K9" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1889,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="E24" t="n">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F24" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G24" t="n">
-        <v>16</v>
+        <v>16.33</v>
       </c>
       <c r="H24" t="n">
-        <v>7.59</v>
+        <v>7.94</v>
       </c>
       <c r="I24" t="n">
-        <v>8.41</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K24" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3254,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>8</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>2</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="E12" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F12" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G12" t="n">
-        <v>16.88</v>
+        <v>17.18</v>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>8.82</v>
       </c>
       <c r="I12" t="n">
-        <v>8.380000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K12" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>8</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
         <v>2</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:31</t>
+          <t>2025-10-27 17:40:05</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E5" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F5" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G5" t="n">
-        <v>17.24</v>
+        <v>16.83</v>
       </c>
       <c r="H5" t="n">
-        <v>9.119999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="I5" t="n">
-        <v>8.119999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G7" t="n">
-        <v>13.92</v>
+        <v>13.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="I7" t="n">
-        <v>8.25</v>
+        <v>7.92</v>
       </c>
       <c r="J7" t="n">
+        <v>37</v>
+      </c>
+      <c r="K7" t="n">
         <v>34</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
         <v>4</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G20" t="n">
-        <v>17.69</v>
+        <v>17.12</v>
       </c>
       <c r="H20" t="n">
-        <v>6.88</v>
+        <v>6.59</v>
       </c>
       <c r="I20" t="n">
-        <v>10.81</v>
+        <v>10.53</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E25" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G25" t="n">
-        <v>19.06</v>
+        <v>18.44</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>9.56</v>
       </c>
       <c r="I25" t="n">
-        <v>9.06</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G8" t="n">
-        <v>15.73</v>
+        <v>15.25</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>6.13</v>
       </c>
       <c r="I8" t="n">
-        <v>9.33</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E9" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G9" t="n">
-        <v>18.63</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>8.75</v>
+        <v>8.35</v>
       </c>
       <c r="I9" t="n">
-        <v>9.880000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E20" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G20" t="n">
-        <v>16.85</v>
+        <v>16.36</v>
       </c>
       <c r="H20" t="n">
-        <v>7.85</v>
+        <v>7.71</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K20" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -5324,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X20" t="n">
         <v>2</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F26" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G26" t="n">
-        <v>14.94</v>
+        <v>14.67</v>
       </c>
       <c r="H26" t="n">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="I26" t="n">
-        <v>7.71</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K26" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X26" t="n">
         <v>4</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-27 17:40:05</t>
+          <t>2025-10-28 03:08:23</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 03:08:23</t>
+          <t>2025-10-28 07:09:45</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 07:09:45</t>
+          <t>2025-10-28 13:12:56</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="E2" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F2" t="n">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="G2" t="n">
-        <v>23.76</v>
+        <v>25.11</v>
       </c>
       <c r="H2" t="n">
-        <v>10.94</v>
+        <v>10.78</v>
       </c>
       <c r="I2" t="n">
-        <v>12.82</v>
+        <v>14.33</v>
       </c>
       <c r="J2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1234,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F3" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G3" t="n">
-        <v>18.76</v>
+        <v>18.06</v>
       </c>
       <c r="H3" t="n">
-        <v>8.41</v>
+        <v>8.17</v>
       </c>
       <c r="I3" t="n">
-        <v>10.35</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G4" t="n">
-        <v>17.67</v>
+        <v>17.54</v>
       </c>
       <c r="H4" t="n">
-        <v>7.58</v>
+        <v>7.46</v>
       </c>
       <c r="I4" t="n">
         <v>10.08</v>
       </c>
       <c r="J4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E6" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F6" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>19.71</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>8.65</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E8" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F8" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G8" t="n">
-        <v>19.5</v>
+        <v>19.06</v>
       </c>
       <c r="H8" t="n">
-        <v>9.06</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>10.44</v>
+        <v>10.18</v>
       </c>
       <c r="J8" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>12.42</v>
       </c>
       <c r="H14" t="n">
-        <v>6.18</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.82</v>
+        <v>6.42</v>
       </c>
       <c r="J14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E16" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" t="n">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G16" t="n">
-        <v>20.06</v>
+        <v>19.74</v>
       </c>
       <c r="H16" t="n">
-        <v>9.779999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>10.28</v>
+        <v>10.37</v>
       </c>
       <c r="J16" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E17" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G17" t="n">
-        <v>13.09</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>10.67</v>
       </c>
       <c r="J17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2745,28 +2745,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E19" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F19" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>18.64</v>
+        <v>18.13</v>
       </c>
       <c r="H19" t="n">
-        <v>8.289999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>10.36</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
         <v>60</v>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
         <v>4</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="I23" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F2" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" t="n">
-        <v>20.2</v>
+        <v>18.91</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.73</v>
       </c>
       <c r="I2" t="n">
-        <v>13.2</v>
+        <v>12.18</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3720,28 +3720,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G3" t="n">
-        <v>14.81</v>
+        <v>14.59</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
       <c r="I3" t="n">
-        <v>7.81</v>
+        <v>7.65</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
         <v>50</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G7" t="n">
-        <v>17.89</v>
+        <v>17.5</v>
       </c>
       <c r="H7" t="n">
-        <v>6.67</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>11.22</v>
+        <v>11.3</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E11" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F11" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G11" t="n">
-        <v>18.8</v>
+        <v>18.63</v>
       </c>
       <c r="H11" t="n">
-        <v>9.130000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="I11" t="n">
-        <v>9.67</v>
+        <v>9.69</v>
       </c>
       <c r="J11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4630,31 +4630,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E13" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F13" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G13" t="n">
-        <v>22.33</v>
+        <v>21.69</v>
       </c>
       <c r="H13" t="n">
-        <v>11.27</v>
+        <v>10.94</v>
       </c>
       <c r="I13" t="n">
-        <v>11.07</v>
+        <v>10.75</v>
       </c>
       <c r="J13" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K13" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E16" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F16" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G16" t="n">
-        <v>19.06</v>
+        <v>18.89</v>
       </c>
       <c r="H16" t="n">
-        <v>9.109999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>9.94</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="n">
         <v>77</v>
-      </c>
-      <c r="K16" t="n">
-        <v>72</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E18" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G18" t="n">
-        <v>16.77</v>
+        <v>16.43</v>
       </c>
       <c r="H18" t="n">
-        <v>8.539999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.23</v>
+        <v>8.07</v>
       </c>
       <c r="J18" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="E19" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G19" t="n">
-        <v>21.8</v>
+        <v>21.43</v>
       </c>
       <c r="H19" t="n">
-        <v>9.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>12.05</v>
       </c>
       <c r="J19" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="E22" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F22" t="n">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="H22" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="I22" t="n">
-        <v>10.26</v>
+        <v>11.75</v>
       </c>
       <c r="J22" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -5485,13 +5485,13 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="E24" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F24" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G24" t="n">
-        <v>22.27</v>
+        <v>23.88</v>
       </c>
       <c r="H24" t="n">
-        <v>9.93</v>
+        <v>9.81</v>
       </c>
       <c r="I24" t="n">
-        <v>12.33</v>
+        <v>14.06</v>
       </c>
       <c r="J24" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
@@ -5667,13 +5667,13 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-28 13:12:56</t>
+          <t>2025-10-29 07:08:09</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
@@ -4341,53 +4341,53 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egorov Sergey</t>
+          <t>Gribovskiy Nikita</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Егоров Сергей</t>
+          <t>Грибовский Никита</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>13.91</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>6.55</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.36</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -4414,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -4432,53 +4432,53 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zaytsev Valentin</t>
+          <t>Egorov Sergey</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Зайцев Валентин</t>
+          <t>Егоров Сергей</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="E11" t="n">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
-        <v>18.63</v>
+        <v>13.91</v>
       </c>
       <c r="H11" t="n">
-        <v>8.94</v>
+        <v>6.55</v>
       </c>
       <c r="I11" t="n">
-        <v>9.69</v>
+        <v>7.36</v>
       </c>
       <c r="J11" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K11" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -4523,53 +4523,53 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ivanov Yuriy</t>
+          <t>Zaytsev Valentin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Иванов Юрий</t>
+          <t>Зайцев Валентин</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E12" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G12" t="n">
-        <v>17.18</v>
+        <v>18.63</v>
       </c>
       <c r="H12" t="n">
-        <v>8.82</v>
+        <v>8.94</v>
       </c>
       <c r="I12" t="n">
-        <v>8.35</v>
+        <v>9.69</v>
       </c>
       <c r="J12" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K12" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
         <v>8</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -4614,89 +4614,89 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kolyasnikov Ilya</t>
+          <t>Ivanov Yuriy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Колясников Илья</t>
+          <t>Иванов Юрий</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E13" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F13" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G13" t="n">
-        <v>21.69</v>
+        <v>17.18</v>
       </c>
       <c r="H13" t="n">
-        <v>10.94</v>
+        <v>8.82</v>
       </c>
       <c r="I13" t="n">
-        <v>10.75</v>
+        <v>8.35</v>
       </c>
       <c r="J13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
         <v>66</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8</v>
+      </c>
+      <c r="W13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -4705,56 +4705,56 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kupriyanov Maksim</t>
+          <t>Kolyasnikov Ilya</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Куприянов Максим</t>
+          <t>Колясников Илья</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="E14" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F14" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G14" t="n">
-        <v>17.56</v>
+        <v>21.69</v>
       </c>
       <c r="H14" t="n">
-        <v>8.44</v>
+        <v>10.94</v>
       </c>
       <c r="I14" t="n">
-        <v>9.109999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="J14" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -4772,22 +4772,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -4796,53 +4796,53 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Litvinov Aleksandr</t>
+          <t>Kupriyanov Maksim</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Литвинов Александр</t>
+          <t>Куприянов Максим</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="G15" t="n">
-        <v>13.25</v>
+        <v>17.56</v>
       </c>
       <c r="H15" t="n">
-        <v>7.5</v>
+        <v>8.44</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -4863,23 +4863,23 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>10</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2</v>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>17</t>
@@ -4887,59 +4887,59 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Novikov Nikita</t>
+          <t>Litvinov Aleksandr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Новиков Никита</t>
+          <t>Литвинов Александр</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>18.89</v>
+        <v>13.25</v>
       </c>
       <c r="H16" t="n">
-        <v>8.949999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>9.949999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -4978,65 +4978,65 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Parikov Yaroslav</t>
+          <t>Novikov Nikita</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Париков Ярослав</t>
+          <t>Новиков Никита</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="E17" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F17" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G17" t="n">
-        <v>18.65</v>
+        <v>18.89</v>
       </c>
       <c r="H17" t="n">
-        <v>8.59</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>10.06</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5045,22 +5045,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -5069,50 +5069,50 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Polyakov Nikita A.</t>
+          <t>Parikov Yaroslav</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Поляков Никита А.</t>
+          <t>Париков Ярослав</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="E18" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F18" t="n">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="G18" t="n">
-        <v>16.43</v>
+        <v>18.65</v>
       </c>
       <c r="H18" t="n">
-        <v>8.359999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="I18" t="n">
-        <v>8.07</v>
+        <v>10.06</v>
       </c>
       <c r="J18" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -5160,47 +5160,47 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sadovnikov Aleksandr</t>
+          <t>Polyakov Nikita A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Садовников Александр</t>
+          <t>Поляков Никита А.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="E19" t="n">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="F19" t="n">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="G19" t="n">
-        <v>21.43</v>
+        <v>16.43</v>
       </c>
       <c r="H19" t="n">
-        <v>9.380000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>12.05</v>
+        <v>8.07</v>
       </c>
       <c r="J19" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -5227,22 +5227,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -5251,56 +5251,56 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sedov Egor</t>
+          <t>Sadovnikov Aleksandr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Седов Егор</t>
+          <t>Садовников Александр</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>229</v>
+        <v>450</v>
       </c>
       <c r="E20" t="n">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F20" t="n">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="G20" t="n">
-        <v>16.36</v>
+        <v>21.43</v>
       </c>
       <c r="H20" t="n">
-        <v>7.71</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>8.640000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="J20" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -5318,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -5342,47 +5342,47 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Serdyuk Nikita</t>
+          <t>Sedov Egor</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сердюк Никита</t>
+          <t>Седов Егор</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F21" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G21" t="n">
-        <v>15.55</v>
+        <v>16.36</v>
       </c>
       <c r="H21" t="n">
-        <v>7.27</v>
+        <v>7.71</v>
       </c>
       <c r="I21" t="n">
-        <v>8.27</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K21" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -5415,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5433,65 +5433,65 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sivov Dmitriy</t>
+          <t>Serdyuk Nikita</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сивов Дмитрий</t>
+          <t>Сердюк Никита</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>390</v>
+        <v>171</v>
       </c>
       <c r="E22" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="G22" t="n">
-        <v>19.5</v>
+        <v>15.55</v>
       </c>
       <c r="H22" t="n">
-        <v>7.75</v>
+        <v>7.27</v>
       </c>
       <c r="I22" t="n">
-        <v>11.75</v>
+        <v>8.27</v>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -5503,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -5524,65 +5524,65 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Skugarev Miroslav</t>
+          <t>Sivov Dmitriy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Скугарев Мирослав</t>
+          <t>Сивов Дмитрий</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>7.75</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -5615,65 +5615,65 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Slavikovskiy Roman</t>
+          <t>Skugarev Miroslav</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Славиковский Роман</t>
+          <t>Скугарев Мирослав</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>23.88</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>9.81</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>14.06</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5685,19 +5685,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>4</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -5706,65 +5706,65 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stroganov Maksim</t>
+          <t>Slavikovskiy Roman</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Строганов Максим</t>
+          <t>Славиковский Роман</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E25" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F25" t="n">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="G25" t="n">
-        <v>19.06</v>
+        <v>23.88</v>
       </c>
       <c r="H25" t="n">
-        <v>8.35</v>
+        <v>9.81</v>
       </c>
       <c r="I25" t="n">
-        <v>10.71</v>
+        <v>14.06</v>
       </c>
       <c r="J25" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>4</v>
@@ -5785,10 +5785,10 @@
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -5797,56 +5797,56 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sysuev Aleksandr</t>
+          <t>Stroganov Maksim</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сысуев Александр</t>
+          <t>Строганов Максим</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F26" t="n">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="G26" t="n">
-        <v>14.67</v>
+        <v>19.06</v>
       </c>
       <c r="H26" t="n">
-        <v>7.17</v>
+        <v>8.35</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>10.71</v>
       </c>
       <c r="J26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5864,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 07:08:09</t>
+          <t>2025-10-29 13:09:21</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 13:09:21</t>
+          <t>2025-10-29 13:15:24</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E2" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F2" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G2" t="n">
-        <v>25.11</v>
+        <v>24.53</v>
       </c>
       <c r="H2" t="n">
-        <v>10.78</v>
+        <v>10.42</v>
       </c>
       <c r="I2" t="n">
-        <v>14.33</v>
+        <v>14.11</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F5" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G5" t="n">
-        <v>16.83</v>
+        <v>16.58</v>
       </c>
       <c r="H5" t="n">
-        <v>8.94</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>7.89</v>
+        <v>7.79</v>
       </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K5" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G15" t="n">
-        <v>14.83</v>
+        <v>14.62</v>
       </c>
       <c r="H15" t="n">
-        <v>6.67</v>
+        <v>6.46</v>
       </c>
       <c r="I15" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K15" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>15.85</v>
       </c>
       <c r="H17" t="n">
-        <v>5.33</v>
+        <v>5.23</v>
       </c>
       <c r="I17" t="n">
-        <v>10.67</v>
+        <v>10.62</v>
       </c>
       <c r="J17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E20" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G20" t="n">
-        <v>17.12</v>
+        <v>16.94</v>
       </c>
       <c r="H20" t="n">
-        <v>6.59</v>
+        <v>6.56</v>
       </c>
       <c r="I20" t="n">
-        <v>10.53</v>
+        <v>10.39</v>
       </c>
       <c r="J20" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K20" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>6</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E22" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F22" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G22" t="n">
-        <v>21.82</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>8.18</v>
+        <v>7.83</v>
       </c>
       <c r="I22" t="n">
-        <v>13.64</v>
+        <v>13.17</v>
       </c>
       <c r="J22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E24" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F24" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G24" t="n">
-        <v>16.33</v>
+        <v>16.21</v>
       </c>
       <c r="H24" t="n">
-        <v>7.94</v>
+        <v>7.84</v>
       </c>
       <c r="I24" t="n">
-        <v>8.390000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K24" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G4" t="n">
-        <v>18.25</v>
+        <v>17.78</v>
       </c>
       <c r="H4" t="n">
-        <v>7.25</v>
+        <v>6.89</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G6" t="n">
-        <v>19.18</v>
+        <v>18.58</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7.67</v>
       </c>
       <c r="I6" t="n">
-        <v>11.18</v>
+        <v>10.92</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25</v>
+        <v>15.06</v>
       </c>
       <c r="H8" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="I8" t="n">
-        <v>9.130000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="J8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E9" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F9" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>17.67</v>
       </c>
       <c r="H9" t="n">
-        <v>8.35</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.65</v>
+        <v>9.56</v>
       </c>
       <c r="J9" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4630,31 +4630,31 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>306</v>
+      </c>
+      <c r="E13" t="n">
+        <v>156</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150</v>
+      </c>
+      <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="D13" t="n">
-        <v>292</v>
-      </c>
-      <c r="E13" t="n">
-        <v>150</v>
-      </c>
-      <c r="F13" t="n">
-        <v>142</v>
-      </c>
-      <c r="G13" t="n">
-        <v>17.18</v>
-      </c>
       <c r="H13" t="n">
-        <v>8.82</v>
+        <v>8.67</v>
       </c>
       <c r="I13" t="n">
-        <v>8.35</v>
+        <v>8.33</v>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K13" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
         <v>4</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G22" t="n">
-        <v>15.55</v>
+        <v>15.42</v>
       </c>
       <c r="H22" t="n">
-        <v>7.27</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>8.27</v>
+        <v>8.42</v>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K22" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-29 13:15:24</t>
+          <t>2025-10-30 03:03:17</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 03:03:17</t>
+          <t>2025-10-30 03:39:30</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 03:39:30</t>
+          <t>2025-10-30 04:27:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 04:27:31</t>
+          <t>2025-10-30 07:03:06</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G3" t="n">
-        <v>18.06</v>
+        <v>18.26</v>
       </c>
       <c r="H3" t="n">
-        <v>8.17</v>
+        <v>7.84</v>
       </c>
       <c r="I3" t="n">
-        <v>9.890000000000001</v>
+        <v>10.42</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G4" t="n">
-        <v>17.54</v>
+        <v>17.71</v>
       </c>
       <c r="H4" t="n">
-        <v>7.46</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>10.08</v>
+        <v>10.21</v>
       </c>
       <c r="J4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="E6" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>19.63</v>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>8.16</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>11.47</v>
       </c>
       <c r="J6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E9" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F9" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G9" t="n">
-        <v>16.53</v>
+        <v>16.9</v>
       </c>
       <c r="H9" t="n">
-        <v>8.890000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>7.63</v>
+        <v>7.85</v>
       </c>
       <c r="J9" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2183,47 +2183,47 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Krasotin Nikolay</t>
+          <t>Lavrentev Anton</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Красотин Николай</t>
+          <t>Лаврентьев Антон</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G13" t="n">
-        <v>16.71</v>
+        <v>12.42</v>
       </c>
       <c r="H13" t="n">
-        <v>8.57</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>8.140000000000001</v>
+        <v>6.42</v>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2274,65 +2274,65 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lavrentev Anton</t>
+          <t>Morozov Sergey</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лаврентьев Антон</t>
+          <t>Морозов Сергей</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F14" t="n">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42</v>
+        <v>19.74</v>
       </c>
       <c r="H14" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>69</v>
+      </c>
+      <c r="K14" t="n">
+        <v>71</v>
+      </c>
+      <c r="L14" t="n">
         <v>6</v>
       </c>
-      <c r="I14" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>36</v>
-      </c>
-      <c r="K14" t="n">
-        <v>36</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2344,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>16</v>
+      </c>
+      <c r="W14" t="n">
         <v>6</v>
       </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lazarev Gleb</t>
+          <t>Mochalov Vladimir</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лазарев Глеб</t>
+          <t>Мочалов Владимир</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G15" t="n">
-        <v>14.62</v>
+        <v>15.85</v>
       </c>
       <c r="H15" t="n">
-        <v>6.46</v>
+        <v>5.23</v>
       </c>
       <c r="I15" t="n">
-        <v>8.15</v>
+        <v>10.62</v>
       </c>
       <c r="J15" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -2441,13 +2441,13 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -2456,89 +2456,89 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Morozov Sergey</t>
+          <t>Naumov Denis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Морозов Сергей</t>
+          <t>Наумов Денис</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="F16" t="n">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="G16" t="n">
-        <v>19.74</v>
+        <v>12.79</v>
       </c>
       <c r="H16" t="n">
-        <v>9.369999999999999</v>
+        <v>5.95</v>
       </c>
       <c r="I16" t="n">
-        <v>10.37</v>
+        <v>6.84</v>
       </c>
       <c r="J16" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>6</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>16</v>
-      </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -2547,53 +2547,53 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mochalov Vladimir</t>
+          <t>Ovchinnikov Pavel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Мочалов Владимир</t>
+          <t>Овчинников Павел</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="G17" t="n">
-        <v>15.85</v>
+        <v>18.5</v>
       </c>
       <c r="H17" t="n">
-        <v>5.23</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>10.62</v>
+        <v>10.13</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2617,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W17" t="n">
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -2638,65 +2638,65 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Naumov Denis</t>
+          <t>Oskirko Yuriy</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Наумов Денис</t>
+          <t>Оскирко Юрий</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="E18" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F18" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="G18" t="n">
-        <v>12.79</v>
+        <v>16.94</v>
       </c>
       <c r="H18" t="n">
-        <v>5.95</v>
+        <v>6.56</v>
       </c>
       <c r="I18" t="n">
-        <v>6.84</v>
+        <v>10.39</v>
       </c>
       <c r="J18" t="n">
         <v>54</v>
       </c>
       <c r="K18" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
+        <v>12</v>
+      </c>
+      <c r="W18" t="n">
         <v>6</v>
       </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2729,59 +2729,59 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ovchinnikov Pavel</t>
+          <t>Romasko Evgeniy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Овчинников Павел</t>
+          <t>Ромасько Евгений</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E19" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G19" t="n">
-        <v>18.13</v>
+        <v>15.19</v>
       </c>
       <c r="H19" t="n">
-        <v>8.130000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>8.81</v>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W19" t="n">
         <v>4</v>
@@ -2820,65 +2820,65 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oskirko Yuriy</t>
+          <t>Svetilov Aleksey</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Оскирко Юрий</t>
+          <t>Светилов Алексей</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F20" t="n">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G20" t="n">
-        <v>16.94</v>
+        <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>6.56</v>
+        <v>7.83</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39</v>
+        <v>13.17</v>
       </c>
       <c r="J20" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K20" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2887,22 +2887,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -2911,53 +2911,53 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romasko Evgeniy</t>
+          <t>Sergeev Aleksandr V.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ромасько Евгений</t>
+          <t>Сергеев Александр В.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="E21" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>15.19</v>
+        <v>12.55</v>
       </c>
       <c r="H21" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="I21" t="n">
-        <v>8.81</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3002,53 +3002,53 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Svetilov Aleksey</t>
+          <t>Sidorenko Maksim</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Светилов Алексей</t>
+          <t>Сидоренко Максим</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="E22" t="n">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F22" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>16.21</v>
       </c>
       <c r="H22" t="n">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="I22" t="n">
-        <v>13.17</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K22" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3069,19 +3069,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -3093,90 +3093,90 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergeev Aleksandr V.</t>
+          <t>Soin Aleksandr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сергеев Александр В.</t>
+          <t>Соин Александр</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="G23" t="n">
-        <v>12.55</v>
+        <v>18.53</v>
       </c>
       <c r="H23" t="n">
-        <v>4.55</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I23" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>81</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>8</v>
       </c>
-      <c r="J23" t="n">
-        <v>25</v>
-      </c>
-      <c r="K23" t="n">
-        <v>34</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>2</v>
-      </c>
       <c r="Z23" t="inlineStr">
         <is>
           <t>17</t>
@@ -3184,56 +3184,56 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sidorenko Maksim</t>
+          <t>Spirin Viktor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сидоренко Максим</t>
+          <t>Спирин Виктор</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="E24" t="n">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="F24" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G24" t="n">
-        <v>16.21</v>
+        <v>21.82</v>
       </c>
       <c r="H24" t="n">
-        <v>7.84</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>8.369999999999999</v>
+        <v>12.18</v>
       </c>
       <c r="J24" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K24" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3254,19 +3254,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -3275,53 +3275,53 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Soin Aleksandr</t>
+          <t>Fateev Ivan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Соин Александр</t>
+          <t>Фатеев Иван</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E25" t="n">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F25" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G25" t="n">
-        <v>18.44</v>
+        <v>16.37</v>
       </c>
       <c r="H25" t="n">
-        <v>9.56</v>
+        <v>7.58</v>
       </c>
       <c r="I25" t="n">
-        <v>8.890000000000001</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="J25" t="n">
+        <v>67</v>
+      </c>
+      <c r="K25" t="n">
         <v>81</v>
       </c>
-      <c r="K25" t="n">
-        <v>75</v>
-      </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -3366,56 +3366,56 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spirin Viktor</t>
+          <t>Yudakov Sergey</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Спирин Виктор</t>
+          <t>Юдаков Сергей</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E26" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F26" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G26" t="n">
-        <v>21.82</v>
+        <v>14.32</v>
       </c>
       <c r="H26" t="n">
-        <v>9.640000000000001</v>
+        <v>6.32</v>
       </c>
       <c r="I26" t="n">
-        <v>12.18</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3433,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="E3" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F3" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G3" t="n">
-        <v>14.59</v>
+        <v>15.11</v>
       </c>
       <c r="H3" t="n">
-        <v>6.94</v>
+        <v>7.22</v>
       </c>
       <c r="I3" t="n">
-        <v>7.65</v>
+        <v>7.89</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G7" t="n">
-        <v>17.5</v>
+        <v>17.91</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>5.82</v>
       </c>
       <c r="I7" t="n">
-        <v>11.3</v>
+        <v>12.09</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="E12" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F12" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G12" t="n">
-        <v>18.63</v>
+        <v>18.71</v>
       </c>
       <c r="H12" t="n">
-        <v>8.94</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>9.69</v>
+        <v>9.82</v>
       </c>
       <c r="J12" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4599,7 +4599,7 @@
         <v>8</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4796,53 +4796,53 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kupriyanov Maksim</t>
+          <t>Krasotin Nikolay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Куприянов Максим</t>
+          <t>Красотин Николай</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="E15" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56</v>
+        <v>16.71</v>
       </c>
       <c r="H15" t="n">
-        <v>8.44</v>
+        <v>8.57</v>
       </c>
       <c r="I15" t="n">
-        <v>9.109999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -4863,22 +4863,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -4887,53 +4887,53 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Litvinov Aleksandr</t>
+          <t>Kupriyanov Maksim</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Литвинов Александр</t>
+          <t>Куприянов Максим</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="G16" t="n">
-        <v>13.25</v>
+        <v>17.56</v>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>8.44</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4954,23 +4954,23 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>10</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>4</v>
       </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2</v>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>17</t>
@@ -4978,59 +4978,59 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Novikov Nikita</t>
+          <t>Lazarev Gleb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Новиков Никита</t>
+          <t>Лазарев Глеб</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="E17" t="n">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="F17" t="n">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="G17" t="n">
-        <v>18.89</v>
+        <v>14.62</v>
       </c>
       <c r="H17" t="n">
-        <v>8.949999999999999</v>
+        <v>6.46</v>
       </c>
       <c r="I17" t="n">
-        <v>9.949999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K17" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5045,22 +5045,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -5069,53 +5069,53 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Parikov Yaroslav</t>
+          <t>Litvinov Aleksandr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Париков Ярослав</t>
+          <t>Литвинов Александр</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="E18" t="n">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>18.65</v>
+        <v>13.25</v>
       </c>
       <c r="H18" t="n">
-        <v>8.59</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
-        <v>10.06</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -5142,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -5160,89 +5160,89 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Polyakov Nikita A.</t>
+          <t>Novikov Nikita</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Поляков Никита А.</t>
+          <t>Новиков Никита</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>359</v>
+      </c>
+      <c r="E19" t="n">
+        <v>170</v>
+      </c>
+      <c r="F19" t="n">
+        <v>189</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>80</v>
+      </c>
+      <c r="K19" t="n">
+        <v>77</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4</v>
+      </c>
+      <c r="W19" t="n">
         <v>14</v>
       </c>
-      <c r="D19" t="n">
-        <v>230</v>
-      </c>
-      <c r="E19" t="n">
-        <v>117</v>
-      </c>
-      <c r="F19" t="n">
-        <v>113</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J19" t="n">
-        <v>56</v>
-      </c>
-      <c r="K19" t="n">
-        <v>54</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>8</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -5251,56 +5251,56 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sadovnikov Aleksandr</t>
+          <t>Parikov Yaroslav</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Садовников Александр</t>
+          <t>Париков Ярослав</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="E20" t="n">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="F20" t="n">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="G20" t="n">
-        <v>21.43</v>
+        <v>18.72</v>
       </c>
       <c r="H20" t="n">
-        <v>9.380000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="I20" t="n">
-        <v>12.05</v>
+        <v>10.17</v>
       </c>
       <c r="J20" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K20" t="n">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -5318,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -5342,50 +5342,50 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sedov Egor</t>
+          <t>Polyakov Nikita A.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Седов Егор</t>
+          <t>Поляков Никита А.</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E21" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G21" t="n">
-        <v>16.36</v>
+        <v>16.43</v>
       </c>
       <c r="H21" t="n">
-        <v>7.71</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>8.640000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="J21" t="n">
+        <v>56</v>
+      </c>
+      <c r="K21" t="n">
         <v>54</v>
       </c>
-      <c r="K21" t="n">
-        <v>58</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -5415,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5433,65 +5433,65 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serdyuk Nikita</t>
+          <t>Sadovnikov Aleksandr</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сердюк Никита</t>
+          <t>Садовников Александр</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>185</v>
+        <v>472</v>
       </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="F22" t="n">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="G22" t="n">
-        <v>15.42</v>
+        <v>21.45</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>8.42</v>
+        <v>12.41</v>
       </c>
       <c r="J22" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="K22" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -5500,19 +5500,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -5524,65 +5524,65 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sivov Dmitriy</t>
+          <t>Sedov Egor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сивов Дмитрий</t>
+          <t>Седов Егор</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>390</v>
+        <v>229</v>
       </c>
       <c r="E23" t="n">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="F23" t="n">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G23" t="n">
-        <v>19.5</v>
+        <v>16.36</v>
       </c>
       <c r="H23" t="n">
-        <v>7.75</v>
+        <v>7.71</v>
       </c>
       <c r="I23" t="n">
-        <v>11.75</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -5594,19 +5594,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -5615,47 +5615,47 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Skugarev Miroslav</t>
+          <t>Serdyuk Nikita</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Скугарев Мирослав</t>
+          <t>Сердюк Никита</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>15.42</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8.42</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5685,20 +5685,20 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>4</v>
       </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2</v>
-      </c>
       <c r="Z24" t="inlineStr">
         <is>
           <t>17</t>
@@ -5706,53 +5706,53 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Slavikovskiy Roman</t>
+          <t>Sivov Dmitriy</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Славиковский Роман</t>
+          <t>Сивов Дмитрий</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E25" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F25" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G25" t="n">
-        <v>23.88</v>
+        <v>19.5</v>
       </c>
       <c r="H25" t="n">
-        <v>9.81</v>
+        <v>7.75</v>
       </c>
       <c r="I25" t="n">
-        <v>14.06</v>
+        <v>11.75</v>
       </c>
       <c r="J25" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K25" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5776,19 +5776,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -5797,56 +5797,56 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stroganov Maksim</t>
+          <t>Skugarev Miroslav</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Строганов Максим</t>
+          <t>Скугарев Мирослав</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="E26" t="n">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>19.06</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>8.35</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>10.71</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K26" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5864,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-30 07:03:06</t>
+          <t>2025-10-31 03:03:16</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-31 03:03:16</t>
+          <t>2025-10-31 07:03:14</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E5" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G5" t="n">
-        <v>16.58</v>
+        <v>16.35</v>
       </c>
       <c r="H5" t="n">
-        <v>8.789999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7.79</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F11" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G11" t="n">
-        <v>27.92</v>
+        <v>27.07</v>
       </c>
       <c r="H11" t="n">
-        <v>12.46</v>
+        <v>12.14</v>
       </c>
       <c r="I11" t="n">
-        <v>15.46</v>
+        <v>14.93</v>
       </c>
       <c r="J11" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2290,43 +2290,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E14" t="n">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F14" t="n">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G14" t="n">
-        <v>19.74</v>
+        <v>20.9</v>
       </c>
       <c r="H14" t="n">
-        <v>9.369999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>10.37</v>
+        <v>10.95</v>
       </c>
       <c r="J14" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2472,43 +2472,43 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="E16" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F16" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G16" t="n">
-        <v>12.79</v>
+        <v>14.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.95</v>
+        <v>6.7</v>
       </c>
       <c r="I16" t="n">
-        <v>6.84</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K16" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F18" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G18" t="n">
-        <v>16.94</v>
+        <v>16.89</v>
       </c>
       <c r="H18" t="n">
-        <v>6.56</v>
+        <v>6.63</v>
       </c>
       <c r="I18" t="n">
-        <v>10.39</v>
+        <v>10.26</v>
       </c>
       <c r="J18" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K18" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E20" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F20" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>20.77</v>
       </c>
       <c r="H20" t="n">
-        <v>7.83</v>
+        <v>7.85</v>
       </c>
       <c r="I20" t="n">
-        <v>13.17</v>
+        <v>12.92</v>
       </c>
       <c r="J20" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K20" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E22" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F22" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G22" t="n">
-        <v>16.21</v>
+        <v>16.3</v>
       </c>
       <c r="H22" t="n">
-        <v>7.84</v>
+        <v>7.85</v>
       </c>
       <c r="I22" t="n">
-        <v>8.369999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F26" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" t="n">
-        <v>14.32</v>
+        <v>14.2</v>
       </c>
       <c r="H26" t="n">
-        <v>6.32</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K26" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F8" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06</v>
+        <v>15.22</v>
       </c>
       <c r="H8" t="n">
-        <v>6.12</v>
+        <v>6.22</v>
       </c>
       <c r="I8" t="n">
-        <v>8.94</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4266,43 +4266,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="E9" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F9" t="n">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G9" t="n">
-        <v>17.67</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>8.109999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.56</v>
+        <v>10.21</v>
       </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K9" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4630,31 +4630,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E13" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>17.05</v>
       </c>
       <c r="H13" t="n">
-        <v>8.67</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>8.33</v>
+        <v>8.42</v>
       </c>
       <c r="J13" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E16" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G16" t="n">
-        <v>17.56</v>
+        <v>17.26</v>
       </c>
       <c r="H16" t="n">
-        <v>8.44</v>
+        <v>8.42</v>
       </c>
       <c r="I16" t="n">
-        <v>9.109999999999999</v>
+        <v>8.84</v>
       </c>
       <c r="J16" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E19" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F19" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G19" t="n">
-        <v>18.89</v>
+        <v>18.55</v>
       </c>
       <c r="H19" t="n">
-        <v>8.949999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I19" t="n">
-        <v>9.949999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-10-31 07:03:14</t>
+          <t>2025-11-01 03:02:28</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 03:02:28</t>
+          <t>2025-11-01 07:02:23</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -2183,47 +2183,47 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lavrentev Anton</t>
+          <t>Krasotin Nikolay</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лаврентьев Антон</t>
+          <t>Красотин Николай</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>12.42</v>
+        <v>16.71</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8.57</v>
       </c>
       <c r="I13" t="n">
-        <v>6.42</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2274,65 +2274,65 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Morozov Sergey</t>
+          <t>Lavrentev Anton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Морозов Сергей</t>
+          <t>Лаврентьев Антон</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>418</v>
+        <v>149</v>
       </c>
       <c r="E14" t="n">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>20.9</v>
+        <v>12.42</v>
       </c>
       <c r="H14" t="n">
-        <v>9.949999999999999</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>10.95</v>
+        <v>6.42</v>
       </c>
       <c r="J14" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2344,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mochalov Vladimir</t>
+          <t>Lazarev Gleb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Мочалов Владимир</t>
+          <t>Лазарев Глеб</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G15" t="n">
-        <v>15.85</v>
+        <v>14.62</v>
       </c>
       <c r="H15" t="n">
-        <v>5.23</v>
+        <v>6.46</v>
       </c>
       <c r="I15" t="n">
-        <v>10.62</v>
+        <v>8.15</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -2441,13 +2441,13 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -2456,65 +2456,65 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Naumov Denis</t>
+          <t>Morozov Sergey</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Наумов Денис</t>
+          <t>Морозов Сергей</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="E16" t="n">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="F16" t="n">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="G16" t="n">
-        <v>14.3</v>
+        <v>20.9</v>
       </c>
       <c r="H16" t="n">
-        <v>6.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>10.95</v>
       </c>
       <c r="J16" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>16</v>
+      </c>
+      <c r="W16" t="n">
         <v>6</v>
       </c>
-      <c r="W16" t="n">
-        <v>8</v>
-      </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -2547,53 +2547,53 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ovchinnikov Pavel</t>
+          <t>Mochalov Vladimir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Овчинников Павел</t>
+          <t>Мочалов Владимир</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>18.5</v>
+        <v>15.85</v>
       </c>
       <c r="H17" t="n">
-        <v>8.380000000000001</v>
+        <v>5.23</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13</v>
+        <v>10.62</v>
       </c>
       <c r="J17" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K17" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2617,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -2638,56 +2638,56 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oskirko Yuriy</t>
+          <t>Naumov Denis</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Оскирко Юрий</t>
+          <t>Наумов Денис</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="E18" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F18" t="n">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="G18" t="n">
-        <v>16.89</v>
+        <v>14.3</v>
       </c>
       <c r="H18" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="I18" t="n">
-        <v>10.26</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2729,59 +2729,59 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Romasko Evgeniy</t>
+          <t>Ovchinnikov Pavel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ромасько Евгений</t>
+          <t>Овчинников Павел</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="E19" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F19" t="n">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G19" t="n">
-        <v>15.19</v>
+        <v>18.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.38</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>8.81</v>
+        <v>10.13</v>
       </c>
       <c r="J19" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K19" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2796,17 +2796,17 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>8</v>
+      </c>
+      <c r="W19" t="n">
         <v>6</v>
       </c>
-      <c r="W19" t="n">
-        <v>4</v>
-      </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
@@ -2820,65 +2820,65 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Svetilov Aleksey</t>
+          <t>Oskirko Yuriy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Светилов Алексей</t>
+          <t>Оскирко Юрий</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="E20" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F20" t="n">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G20" t="n">
-        <v>20.77</v>
+        <v>16.89</v>
       </c>
       <c r="H20" t="n">
-        <v>7.85</v>
+        <v>6.63</v>
       </c>
       <c r="I20" t="n">
-        <v>12.92</v>
+        <v>10.26</v>
       </c>
       <c r="J20" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K20" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2887,22 +2887,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -2911,53 +2911,53 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sergeev Aleksandr V.</t>
+          <t>Romasko Evgeniy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сергеев Александр В.</t>
+          <t>Ромасько Евгений</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F21" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="G21" t="n">
-        <v>12.55</v>
+        <v>15.19</v>
       </c>
       <c r="H21" t="n">
-        <v>4.55</v>
+        <v>6.38</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>8.81</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K21" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3002,53 +3002,53 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sidorenko Maksim</t>
+          <t>Svetilov Aleksey</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сидоренко Максим</t>
+          <t>Светилов Алексей</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="E22" t="n">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="F22" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" t="n">
-        <v>16.3</v>
+        <v>20.77</v>
       </c>
       <c r="H22" t="n">
         <v>7.85</v>
       </c>
       <c r="I22" t="n">
-        <v>8.449999999999999</v>
+        <v>12.92</v>
       </c>
       <c r="J22" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="K22" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3069,19 +3069,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -3093,53 +3093,53 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Soin Aleksandr</t>
+          <t>Sergeev Aleksandr V.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Соин Александр</t>
+          <t>Сергеев Александр В.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="E23" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>18.53</v>
+        <v>12.55</v>
       </c>
       <c r="H23" t="n">
-        <v>9.470000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="I23" t="n">
-        <v>9.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3163,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -3184,56 +3184,56 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spirin Viktor</t>
+          <t>Sidorenko Maksim</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Спирин Виктор</t>
+          <t>Сидоренко Максим</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="E24" t="n">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F24" t="n">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G24" t="n">
-        <v>21.82</v>
+        <v>16.3</v>
       </c>
       <c r="H24" t="n">
-        <v>9.640000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="I24" t="n">
-        <v>12.18</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3254,19 +3254,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -3275,44 +3275,44 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fateev Ivan</t>
+          <t>Soin Aleksandr</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Фатеев Иван</t>
+          <t>Соин Александр</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F25" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G25" t="n">
-        <v>16.37</v>
+        <v>18.53</v>
       </c>
       <c r="H25" t="n">
-        <v>7.58</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>8.789999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
         <v>81</v>
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -3366,56 +3366,56 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Yudakov Sergey</t>
+          <t>Spirin Viktor</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Юдаков Сергей</t>
+          <t>Спирин Виктор</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="E26" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F26" t="n">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G26" t="n">
-        <v>14.2</v>
+        <v>21.82</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>7.8</v>
+        <v>12.18</v>
       </c>
       <c r="J26" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K26" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3433,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
@@ -4796,53 +4796,53 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Krasotin Nikolay</t>
+          <t>Kupriyanov Maksim</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Красотин Николай</t>
+          <t>Куприянов Максим</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="G15" t="n">
-        <v>16.71</v>
+        <v>17.26</v>
       </c>
       <c r="H15" t="n">
-        <v>8.57</v>
+        <v>8.42</v>
       </c>
       <c r="I15" t="n">
-        <v>8.140000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -4863,23 +4863,23 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>10</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>17</t>
@@ -4887,53 +4887,53 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kupriyanov Maksim</t>
+          <t>Litvinov Aleksandr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Куприянов Максим</t>
+          <t>Литвинов Александр</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>328</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>17.26</v>
+        <v>13.25</v>
       </c>
       <c r="H16" t="n">
-        <v>8.42</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>8.84</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4954,22 +4954,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -4978,59 +4978,59 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lazarev Gleb</t>
+          <t>Novikov Nikita</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Лазарев Глеб</t>
+          <t>Новиков Никита</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="E17" t="n">
+        <v>178</v>
+      </c>
+      <c r="F17" t="n">
+        <v>193</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J17" t="n">
         <v>84</v>
       </c>
-      <c r="F17" t="n">
-        <v>106</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>42</v>
-      </c>
       <c r="K17" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5045,22 +5045,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -5069,89 +5069,89 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Litvinov Aleksandr</t>
+          <t>Parikov Yaroslav</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Литвинов Александр</t>
+          <t>Париков Ярослав</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>337</v>
+      </c>
+      <c r="E18" t="n">
+        <v>154</v>
+      </c>
+      <c r="F18" t="n">
+        <v>183</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>72</v>
+      </c>
+      <c r="K18" t="n">
+        <v>79</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
-        <v>106</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>46</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4</v>
-      </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -5160,59 +5160,59 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Novikov Nikita</t>
+          <t>Polyakov Nikita A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Новиков Никита</t>
+          <t>Поляков Никита А.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="E19" t="n">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="F19" t="n">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="G19" t="n">
-        <v>18.55</v>
+        <v>16.43</v>
       </c>
       <c r="H19" t="n">
-        <v>8.9</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>9.65</v>
+        <v>8.07</v>
       </c>
       <c r="J19" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -5227,22 +5227,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -5251,65 +5251,65 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Parikov Yaroslav</t>
+          <t>Sadovnikov Aleksandr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Париков Ярослав</t>
+          <t>Садовников Александр</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="E20" t="n">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F20" t="n">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="G20" t="n">
-        <v>18.72</v>
+        <v>21.45</v>
       </c>
       <c r="H20" t="n">
-        <v>8.56</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>10.17</v>
+        <v>12.41</v>
       </c>
       <c r="J20" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K20" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -5318,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -5342,50 +5342,50 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Polyakov Nikita A.</t>
+          <t>Sedov Egor</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Поляков Никита А.</t>
+          <t>Седов Егор</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F21" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G21" t="n">
-        <v>16.43</v>
+        <v>16.36</v>
       </c>
       <c r="H21" t="n">
-        <v>8.359999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="I21" t="n">
-        <v>8.07</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -5415,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5433,65 +5433,65 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sadovnikov Aleksandr</t>
+          <t>Serdyuk Nikita</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Садовников Александр</t>
+          <t>Сердюк Никита</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>472</v>
+        <v>185</v>
       </c>
       <c r="E22" t="n">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="F22" t="n">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="G22" t="n">
-        <v>21.45</v>
+        <v>15.42</v>
       </c>
       <c r="H22" t="n">
-        <v>9.050000000000001</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>12.41</v>
+        <v>8.42</v>
       </c>
       <c r="J22" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="K22" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -5500,19 +5500,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -5524,65 +5524,65 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sedov Egor</t>
+          <t>Sivov Dmitriy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Седов Егор</t>
+          <t>Сивов Дмитрий</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>229</v>
+        <v>390</v>
       </c>
       <c r="E23" t="n">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="F23" t="n">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="G23" t="n">
-        <v>16.36</v>
+        <v>19.5</v>
       </c>
       <c r="H23" t="n">
-        <v>7.71</v>
+        <v>7.75</v>
       </c>
       <c r="I23" t="n">
-        <v>8.640000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="J23" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K23" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -5594,19 +5594,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -5615,47 +5615,47 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serdyuk Nikita</t>
+          <t>Skugarev Miroslav</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сердюк Никита</t>
+          <t>Скугарев Мирослав</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>15.42</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>8.42</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W24" t="n">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -5706,53 +5706,53 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sivov Dmitriy</t>
+          <t>Slavikovskiy Roman</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сивов Дмитрий</t>
+          <t>Славиковский Роман</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E25" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F25" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G25" t="n">
-        <v>19.5</v>
+        <v>23.41</v>
       </c>
       <c r="H25" t="n">
-        <v>7.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>11.75</v>
+        <v>13.71</v>
       </c>
       <c r="J25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5776,19 +5776,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -5797,56 +5797,56 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Skugarev Miroslav</t>
+          <t>Stroganov Maksim</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Скугарев Мирослав</t>
+          <t>Строганов Максим</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>19.06</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>8.35</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>10.71</v>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5864,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 07:02:23</t>
+          <t>2025-11-01 13:39:59</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E6" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F6" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G6" t="n">
-        <v>19.63</v>
+        <v>19.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.16</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>11.47</v>
+        <v>11.2</v>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E8" t="n">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F8" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G8" t="n">
-        <v>19.06</v>
+        <v>19.44</v>
       </c>
       <c r="H8" t="n">
-        <v>8.880000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I8" t="n">
-        <v>10.18</v>
+        <v>9.94</v>
       </c>
       <c r="J8" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E9" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G9" t="n">
-        <v>16.9</v>
+        <v>16.38</v>
       </c>
       <c r="H9" t="n">
-        <v>9.050000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="I9" t="n">
-        <v>7.85</v>
+        <v>7.57</v>
       </c>
       <c r="J9" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="E11" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F11" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G11" t="n">
-        <v>27.07</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>12.14</v>
+        <v>12.67</v>
       </c>
       <c r="I11" t="n">
-        <v>14.93</v>
+        <v>14.33</v>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E12" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G12" t="n">
-        <v>18.25</v>
+        <v>17.77</v>
       </c>
       <c r="H12" t="n">
-        <v>7.33</v>
+        <v>7.08</v>
       </c>
       <c r="I12" t="n">
-        <v>10.92</v>
+        <v>10.69</v>
       </c>
       <c r="J12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G23" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E25" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F25" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G25" t="n">
-        <v>18.53</v>
+        <v>18.2</v>
       </c>
       <c r="H25" t="n">
-        <v>9.470000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>9.050000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J25" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K25" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F3" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>15.11</v>
+        <v>14.95</v>
       </c>
       <c r="H3" t="n">
-        <v>7.22</v>
+        <v>7.05</v>
       </c>
       <c r="I3" t="n">
         <v>7.89</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E12" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F12" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G12" t="n">
-        <v>18.71</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>8.880000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>9.82</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F15" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G15" t="n">
-        <v>17.26</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>8.42</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>8.84</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K15" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>13.25</v>
+        <v>14.67</v>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W16" t="n">
         <v>2</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E17" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F17" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G17" t="n">
-        <v>18.55</v>
+        <v>18.24</v>
       </c>
       <c r="H17" t="n">
-        <v>8.9</v>
+        <v>8.76</v>
       </c>
       <c r="I17" t="n">
-        <v>9.65</v>
+        <v>9.48</v>
       </c>
       <c r="J17" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E23" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F23" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G23" t="n">
-        <v>19.5</v>
+        <v>18.86</v>
       </c>
       <c r="H23" t="n">
-        <v>7.75</v>
+        <v>7.57</v>
       </c>
       <c r="I23" t="n">
-        <v>11.75</v>
+        <v>11.29</v>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>20.17</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>11.67</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W24" t="n">
         <v>2</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-01 13:39:59</t>
+          <t>2025-11-02 03:02:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E2" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F2" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G2" t="n">
-        <v>24.53</v>
+        <v>24.2</v>
       </c>
       <c r="H2" t="n">
-        <v>10.42</v>
+        <v>10.4</v>
       </c>
       <c r="I2" t="n">
-        <v>14.11</v>
+        <v>13.8</v>
       </c>
       <c r="J2" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K2" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E3" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F3" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G3" t="n">
-        <v>18.26</v>
+        <v>18.25</v>
       </c>
       <c r="H3" t="n">
-        <v>7.84</v>
+        <v>7.95</v>
       </c>
       <c r="I3" t="n">
-        <v>10.42</v>
+        <v>10.3</v>
       </c>
       <c r="J3" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G4" t="n">
-        <v>17.71</v>
+        <v>17.6</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
       <c r="I4" t="n">
-        <v>10.21</v>
+        <v>10.07</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85</v>
+        <v>18.86</v>
       </c>
       <c r="H10" t="n">
-        <v>9.69</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>10.15</v>
+        <v>9.57</v>
       </c>
       <c r="J10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42</v>
+        <v>12.85</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.62</v>
       </c>
       <c r="I14" t="n">
-        <v>6.42</v>
+        <v>6.23</v>
       </c>
       <c r="J14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G17" t="n">
-        <v>15.85</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>5.23</v>
+        <v>5.86</v>
       </c>
       <c r="I17" t="n">
-        <v>10.62</v>
+        <v>10.14</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E24" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G24" t="n">
-        <v>16.3</v>
+        <v>15.81</v>
       </c>
       <c r="H24" t="n">
-        <v>7.85</v>
+        <v>7.57</v>
       </c>
       <c r="I24" t="n">
-        <v>8.449999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="J24" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G2" t="n">
-        <v>18.91</v>
+        <v>18.83</v>
       </c>
       <c r="H2" t="n">
-        <v>6.73</v>
+        <v>7.33</v>
       </c>
       <c r="I2" t="n">
-        <v>12.18</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G8" t="n">
-        <v>15.22</v>
+        <v>14.74</v>
       </c>
       <c r="H8" t="n">
-        <v>6.22</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8.74</v>
       </c>
       <c r="J8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
@@ -4614,53 +4614,53 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ivanov Yuriy</t>
+          <t>Ivanichkin Ivan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Иванов Юрий</t>
+          <t>Иваничкин Иван</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>17.05</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>8.630000000000001</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>8.42</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4684,16 +4684,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -4705,89 +4705,89 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kolyasnikov Ilya</t>
+          <t>Ivanov Yuriy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Колясников Илья</t>
+          <t>Иванов Юрий</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E14" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F14" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G14" t="n">
-        <v>21.69</v>
+        <v>16.5</v>
       </c>
       <c r="H14" t="n">
-        <v>10.94</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>10.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10</v>
+      </c>
+      <c r="W14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -4796,56 +4796,56 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kupriyanov Maksim</t>
+          <t>Kolyasnikov Ilya</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Куприянов Максим</t>
+          <t>Колясников Илья</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="E15" t="n">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>21.47</v>
       </c>
       <c r="H15" t="n">
-        <v>8.300000000000001</v>
+        <v>11.12</v>
       </c>
       <c r="I15" t="n">
-        <v>8.699999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="J15" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K15" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -4863,22 +4863,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -4887,53 +4887,53 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Litvinov Aleksandr</t>
+          <t>Kupriyanov Maksim</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Литвинов Александр</t>
+          <t>Куприянов Максим</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="F16" t="n">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="G16" t="n">
-        <v>14.67</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>8.890000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>5.78</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4954,22 +4954,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -4978,59 +4978,59 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Novikov Nikita</t>
+          <t>Litvinov Aleksandr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Новиков Никита</t>
+          <t>Литвинов Александр</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="E17" t="n">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="G17" t="n">
-        <v>18.24</v>
+        <v>14.67</v>
       </c>
       <c r="H17" t="n">
-        <v>8.76</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>9.48</v>
+        <v>5.78</v>
       </c>
       <c r="J17" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5045,22 +5045,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W17" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -5069,65 +5069,65 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Parikov Yaroslav</t>
+          <t>Novikov Nikita</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Париков Ярослав</t>
+          <t>Новиков Никита</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="E18" t="n">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F18" t="n">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G18" t="n">
-        <v>18.72</v>
+        <v>18.24</v>
       </c>
       <c r="H18" t="n">
-        <v>8.56</v>
+        <v>8.76</v>
       </c>
       <c r="I18" t="n">
-        <v>10.17</v>
+        <v>9.48</v>
       </c>
       <c r="J18" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K18" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -5136,22 +5136,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -5160,50 +5160,50 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Polyakov Nikita A.</t>
+          <t>Parikov Yaroslav</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Поляков Никита А.</t>
+          <t>Париков Ярослав</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="E19" t="n">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F19" t="n">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>16.43</v>
+        <v>18.72</v>
       </c>
       <c r="H19" t="n">
-        <v>8.359999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="I19" t="n">
-        <v>8.07</v>
+        <v>10.17</v>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K19" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -5251,47 +5251,47 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sadovnikov Aleksandr</t>
+          <t>Polyakov Nikita A.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Садовников Александр</t>
+          <t>Поляков Никита А.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>472</v>
+        <v>230</v>
       </c>
       <c r="E20" t="n">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="F20" t="n">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="G20" t="n">
-        <v>21.45</v>
+        <v>16.43</v>
       </c>
       <c r="H20" t="n">
-        <v>9.050000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>12.41</v>
+        <v>8.07</v>
       </c>
       <c r="J20" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5300,16 +5300,16 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -5318,22 +5318,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W20" t="n">
         <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -5342,65 +5342,65 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sedov Egor</t>
+          <t>Sadovnikov Aleksandr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Седов Егор</t>
+          <t>Садовников Александр</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="E21" t="n">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="F21" t="n">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="G21" t="n">
-        <v>16.36</v>
+        <v>21.45</v>
       </c>
       <c r="H21" t="n">
-        <v>7.71</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>8.640000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="J21" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="K21" t="n">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -5409,22 +5409,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5433,47 +5433,47 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serdyuk Nikita</t>
+          <t>Sedov Egor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сердюк Никита</t>
+          <t>Седов Егор</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F22" t="n">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G22" t="n">
-        <v>15.42</v>
+        <v>16.33</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>7.73</v>
       </c>
       <c r="I22" t="n">
-        <v>8.42</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K22" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5506,16 +5506,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -5524,65 +5524,65 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sivov Dmitriy</t>
+          <t>Serdyuk Nikita</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сивов Дмитрий</t>
+          <t>Сердюк Никита</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>396</v>
+        <v>185</v>
       </c>
       <c r="E23" t="n">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="F23" t="n">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="G23" t="n">
-        <v>18.86</v>
+        <v>15.42</v>
       </c>
       <c r="H23" t="n">
-        <v>7.57</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>11.29</v>
+        <v>8.42</v>
       </c>
       <c r="J23" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K23" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -5594,19 +5594,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -5615,65 +5615,65 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Skugarev Miroslav</t>
+          <t>Sivov Dmitriy</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Скугарев Мирослав</t>
+          <t>Сивов Дмитрий</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="E24" t="n">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="F24" t="n">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="G24" t="n">
-        <v>20.17</v>
+        <v>18.86</v>
       </c>
       <c r="H24" t="n">
-        <v>11.67</v>
+        <v>7.57</v>
       </c>
       <c r="I24" t="n">
-        <v>8.5</v>
+        <v>11.29</v>
       </c>
       <c r="J24" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="K24" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -5706,65 +5706,65 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Slavikovskiy Roman</t>
+          <t>Skugarev Miroslav</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Славиковский Роман</t>
+          <t>Скугарев Мирослав</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>398</v>
+        <v>121</v>
       </c>
       <c r="E25" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F25" t="n">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="G25" t="n">
-        <v>23.41</v>
+        <v>20.17</v>
       </c>
       <c r="H25" t="n">
-        <v>9.710000000000001</v>
+        <v>11.67</v>
       </c>
       <c r="I25" t="n">
-        <v>13.71</v>
+        <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5776,19 +5776,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -5797,65 +5797,65 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stroganov Maksim</t>
+          <t>Slavikovskiy Roman</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Строганов Максим</t>
+          <t>Славиковский Роман</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="E26" t="n">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F26" t="n">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="G26" t="n">
-        <v>19.06</v>
+        <v>22.44</v>
       </c>
       <c r="H26" t="n">
-        <v>8.35</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>10.71</v>
+        <v>13.06</v>
       </c>
       <c r="J26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5864,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-02 03:02:31</t>
+          <t>2025-11-03 09:38:26</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 09:38:26</t>
+          <t>2025-11-03 10:56:08</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 10:56:08</t>
+          <t>2025-11-03 11:35:25</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E8" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G8" t="n">
-        <v>19.44</v>
+        <v>19.37</v>
       </c>
       <c r="H8" t="n">
-        <v>9.5</v>
+        <v>9.42</v>
       </c>
       <c r="I8" t="n">
-        <v>9.94</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K8" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F2" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G2" t="n">
-        <v>18.83</v>
+        <v>18.77</v>
       </c>
       <c r="H2" t="n">
-        <v>7.33</v>
+        <v>7.38</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>11.38</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E14" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F14" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G14" t="n">
-        <v>16.5</v>
+        <v>16.57</v>
       </c>
       <c r="H14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K14" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 11:35:25</t>
+          <t>2025-11-03 14:31:22</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 14:31:22</t>
+          <t>2025-11-03 15:41:15</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E5" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F5" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" t="n">
-        <v>16.35</v>
+        <v>16.14</v>
       </c>
       <c r="H5" t="n">
-        <v>8.75</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E18" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F18" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="H18" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>7.62</v>
       </c>
       <c r="J18" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K18" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E20" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F20" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G20" t="n">
-        <v>16.89</v>
+        <v>16.65</v>
       </c>
       <c r="H20" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="I20" t="n">
-        <v>10.26</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K20" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E22" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F22" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G22" t="n">
-        <v>20.77</v>
+        <v>20.29</v>
       </c>
       <c r="H22" t="n">
-        <v>7.85</v>
+        <v>7.71</v>
       </c>
       <c r="I22" t="n">
-        <v>12.92</v>
+        <v>12.57</v>
       </c>
       <c r="J22" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E4" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" t="n">
-        <v>17.78</v>
+        <v>17.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>10.89</v>
+        <v>10.2</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E9" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F9" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="H9" t="n">
-        <v>8.789999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="I9" t="n">
-        <v>10.21</v>
+        <v>10.1</v>
       </c>
       <c r="J9" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K9" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E21" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F21" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G21" t="n">
-        <v>21.45</v>
+        <v>21.13</v>
       </c>
       <c r="H21" t="n">
-        <v>9.050000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="I21" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="J21" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K21" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-03 15:41:15</t>
+          <t>2025-11-04 03:02:32</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 03:02:32</t>
+          <t>2025-11-04 07:02:27</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 07:02:27</t>
+          <t>2025-11-04 08:10:46</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 08:10:46</t>
+          <t>2025-11-04 09:23:57</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 09:23:57</t>
+          <t>2025-11-04 09:58:43</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E2" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G2" t="n">
-        <v>24.2</v>
+        <v>23.71</v>
       </c>
       <c r="H2" t="n">
-        <v>10.4</v>
+        <v>10.29</v>
       </c>
       <c r="I2" t="n">
-        <v>13.8</v>
+        <v>13.43</v>
       </c>
       <c r="J2" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K2" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="E3" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F3" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G3" t="n">
-        <v>18.25</v>
+        <v>18.14</v>
       </c>
       <c r="H3" t="n">
         <v>7.95</v>
       </c>
       <c r="I3" t="n">
-        <v>10.3</v>
+        <v>10.19</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E4" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G4" t="n">
-        <v>17.6</v>
+        <v>17.38</v>
       </c>
       <c r="H4" t="n">
-        <v>7.53</v>
+        <v>7.56</v>
       </c>
       <c r="I4" t="n">
-        <v>10.07</v>
+        <v>9.81</v>
       </c>
       <c r="J4" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E5" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F5" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G5" t="n">
-        <v>16.14</v>
+        <v>15.86</v>
       </c>
       <c r="H5" t="n">
-        <v>8.710000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="I5" t="n">
-        <v>7.43</v>
+        <v>7.18</v>
       </c>
       <c r="J5" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W5" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E6" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F6" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G6" t="n">
-        <v>19.25</v>
+        <v>18.71</v>
       </c>
       <c r="H6" t="n">
-        <v>8.050000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="I6" t="n">
-        <v>11.2</v>
+        <v>10.86</v>
       </c>
       <c r="J6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E8" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F8" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G8" t="n">
-        <v>19.37</v>
+        <v>18.9</v>
       </c>
       <c r="H8" t="n">
-        <v>9.42</v>
+        <v>9.25</v>
       </c>
       <c r="I8" t="n">
-        <v>9.949999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="J8" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F9" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>16.38</v>
+        <v>16.18</v>
       </c>
       <c r="H9" t="n">
-        <v>8.81</v>
+        <v>8.77</v>
       </c>
       <c r="I9" t="n">
-        <v>7.57</v>
+        <v>7.41</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K9" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G13" t="n">
-        <v>16.71</v>
+        <v>16.88</v>
       </c>
       <c r="H13" t="n">
-        <v>8.57</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>8.140000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G15" t="n">
-        <v>14.62</v>
+        <v>14.29</v>
       </c>
       <c r="H15" t="n">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
       <c r="I15" t="n">
-        <v>8.15</v>
+        <v>7.86</v>
       </c>
       <c r="J15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="E16" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F16" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>20.9</v>
+        <v>20.48</v>
       </c>
       <c r="H16" t="n">
-        <v>9.949999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>10.95</v>
+        <v>10.62</v>
       </c>
       <c r="J16" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K16" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E21" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F21" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G21" t="n">
-        <v>15.19</v>
+        <v>15.24</v>
       </c>
       <c r="H21" t="n">
-        <v>6.38</v>
+        <v>6.47</v>
       </c>
       <c r="I21" t="n">
-        <v>8.81</v>
+        <v>8.76</v>
       </c>
       <c r="J21" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F22" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G22" t="n">
-        <v>20.29</v>
+        <v>19.6</v>
       </c>
       <c r="H22" t="n">
-        <v>7.71</v>
+        <v>7.73</v>
       </c>
       <c r="I22" t="n">
-        <v>12.57</v>
+        <v>11.87</v>
       </c>
       <c r="J22" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K22" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E25" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F25" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G25" t="n">
-        <v>18.2</v>
+        <v>17.71</v>
       </c>
       <c r="H25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>8.9</v>
+        <v>8.67</v>
       </c>
       <c r="J25" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K25" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F4" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G4" t="n">
-        <v>17.2</v>
+        <v>16.55</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="I4" t="n">
-        <v>10.2</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25</v>
+        <v>14.67</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>7.56</v>
       </c>
       <c r="I5" t="n">
-        <v>7.25</v>
+        <v>7.11</v>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G7" t="n">
-        <v>17.91</v>
+        <v>17.42</v>
       </c>
       <c r="H7" t="n">
-        <v>5.82</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>12.09</v>
+        <v>11.42</v>
       </c>
       <c r="J7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>13.91</v>
+        <v>14.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6.55</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>7.36</v>
+        <v>7.25</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K11" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E15" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F15" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G15" t="n">
-        <v>21.47</v>
+        <v>20.83</v>
       </c>
       <c r="H15" t="n">
-        <v>11.12</v>
+        <v>10.83</v>
       </c>
       <c r="I15" t="n">
-        <v>10.35</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E18" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F18" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G18" t="n">
-        <v>18.24</v>
+        <v>17.77</v>
       </c>
       <c r="H18" t="n">
-        <v>8.76</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>9.48</v>
+        <v>9.23</v>
       </c>
       <c r="J18" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E19" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F19" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G19" t="n">
-        <v>18.72</v>
+        <v>18.37</v>
       </c>
       <c r="H19" t="n">
-        <v>8.56</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>10.17</v>
+        <v>9.84</v>
       </c>
       <c r="J19" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K19" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E22" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F22" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G22" t="n">
-        <v>16.33</v>
+        <v>16.19</v>
       </c>
       <c r="H22" t="n">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="I22" t="n">
-        <v>8.6</v>
+        <v>8.44</v>
       </c>
       <c r="J22" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K22" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>14</v>
       </c>
       <c r="W22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E24" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F24" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G24" t="n">
-        <v>18.86</v>
+        <v>18.36</v>
       </c>
       <c r="H24" t="n">
-        <v>7.57</v>
+        <v>7.41</v>
       </c>
       <c r="I24" t="n">
-        <v>11.29</v>
+        <v>10.95</v>
       </c>
       <c r="J24" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E26" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F26" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G26" t="n">
-        <v>22.44</v>
+        <v>21.79</v>
       </c>
       <c r="H26" t="n">
-        <v>9.390000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>13.06</v>
+        <v>12.58</v>
       </c>
       <c r="J26" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-04 09:58:43</t>
+          <t>2025-11-06 03:04:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 03:04:31</t>
+          <t>2025-11-06 07:04:09</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 07:04:09</t>
+          <t>2025-11-06 10:30:06</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E7" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G7" t="n">
-        <v>13.62</v>
+        <v>13.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="I7" t="n">
-        <v>7.92</v>
+        <v>7.64</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
-        <v>16.88</v>
+        <v>16.11</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>7.88</v>
+        <v>7.22</v>
       </c>
       <c r="J13" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E16" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F16" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G16" t="n">
-        <v>20.48</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>9.859999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="I16" t="n">
-        <v>10.62</v>
+        <v>10.32</v>
       </c>
       <c r="J16" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K16" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2563,37 +2563,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F17" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>10.14</v>
+        <v>10.6</v>
       </c>
       <c r="J17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K17" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E18" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G18" t="n">
-        <v>14.29</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>6.67</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7.62</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K18" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="E20" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F20" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G20" t="n">
-        <v>16.65</v>
+        <v>17.29</v>
       </c>
       <c r="H20" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="I20" t="n">
-        <v>9.949999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="J20" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F21" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G21" t="n">
-        <v>15.24</v>
+        <v>14.94</v>
       </c>
       <c r="H21" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
       <c r="I21" t="n">
-        <v>8.76</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K21" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3109,37 +3109,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G23" t="n">
-        <v>12.5</v>
+        <v>13.46</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.77</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>8.69</v>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E3" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G3" t="n">
-        <v>14.95</v>
+        <v>14.9</v>
       </c>
       <c r="H3" t="n">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E12" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F12" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>17.68</v>
       </c>
       <c r="H12" t="n">
-        <v>8.609999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>9.390000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="E14" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F14" t="n">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G14" t="n">
-        <v>16.57</v>
+        <v>17.18</v>
       </c>
       <c r="H14" t="n">
-        <v>8.289999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>8.289999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K14" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E19" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F19" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G19" t="n">
-        <v>18.37</v>
+        <v>17.95</v>
       </c>
       <c r="H19" t="n">
-        <v>8.529999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>9.84</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E20" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F20" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G20" t="n">
-        <v>16.43</v>
+        <v>17.33</v>
       </c>
       <c r="H20" t="n">
-        <v>8.359999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="I20" t="n">
-        <v>8.07</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K20" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5358,37 +5358,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="E21" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F21" t="n">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G21" t="n">
-        <v>21.13</v>
+        <v>21.29</v>
       </c>
       <c r="H21" t="n">
-        <v>8.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>12.22</v>
+        <v>12.42</v>
       </c>
       <c r="J21" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5722,31 +5722,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F25" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>20.17</v>
+        <v>18.71</v>
       </c>
       <c r="H25" t="n">
-        <v>11.67</v>
+        <v>10.86</v>
       </c>
       <c r="I25" t="n">
-        <v>8.5</v>
+        <v>7.86</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-06 10:30:06</t>
+          <t>2025-11-07 02:49:21</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 02:49:21</t>
+          <t>2025-11-07 03:03:48</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 03:03:48</t>
+          <t>2025-11-07 07:03:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F2" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G2" t="n">
-        <v>23.71</v>
+        <v>23.18</v>
       </c>
       <c r="H2" t="n">
-        <v>10.29</v>
+        <v>10.09</v>
       </c>
       <c r="I2" t="n">
-        <v>13.43</v>
+        <v>13.09</v>
       </c>
       <c r="J2" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K2" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E3" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F3" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G3" t="n">
-        <v>18.14</v>
+        <v>18.23</v>
       </c>
       <c r="H3" t="n">
         <v>7.95</v>
       </c>
       <c r="I3" t="n">
-        <v>10.19</v>
+        <v>10.27</v>
       </c>
       <c r="J3" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K3" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E6" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F6" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>18.71</v>
+        <v>18.41</v>
       </c>
       <c r="H6" t="n">
-        <v>7.86</v>
+        <v>7.68</v>
       </c>
       <c r="I6" t="n">
-        <v>10.86</v>
+        <v>10.73</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F12" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G12" t="n">
-        <v>17.77</v>
+        <v>17.64</v>
       </c>
       <c r="H12" t="n">
-        <v>7.08</v>
+        <v>7.29</v>
       </c>
       <c r="I12" t="n">
-        <v>10.69</v>
+        <v>10.36</v>
       </c>
       <c r="J12" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E19" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F19" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G19" t="n">
-        <v>18.5</v>
+        <v>18.35</v>
       </c>
       <c r="H19" t="n">
-        <v>8.380000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>10.13</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K19" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2808,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E22" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F22" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G22" t="n">
-        <v>19.6</v>
+        <v>19.63</v>
       </c>
       <c r="H22" t="n">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="I22" t="n">
-        <v>11.87</v>
+        <v>11.88</v>
       </c>
       <c r="J22" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K22" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E24" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F24" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G24" t="n">
-        <v>15.81</v>
+        <v>15.64</v>
       </c>
       <c r="H24" t="n">
-        <v>7.57</v>
+        <v>7.5</v>
       </c>
       <c r="I24" t="n">
-        <v>8.24</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E25" t="n">
+        <v>194</v>
+      </c>
+      <c r="F25" t="n">
         <v>190</v>
       </c>
-      <c r="F25" t="n">
-        <v>182</v>
-      </c>
       <c r="G25" t="n">
-        <v>17.71</v>
+        <v>17.45</v>
       </c>
       <c r="H25" t="n">
-        <v>9.050000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="I25" t="n">
-        <v>8.67</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J25" t="n">
+        <v>92</v>
+      </c>
+      <c r="K25" t="n">
         <v>90</v>
-      </c>
-      <c r="K25" t="n">
-        <v>86</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3351,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F8" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G8" t="n">
-        <v>14.74</v>
+        <v>14.6</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.74</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G11" t="n">
-        <v>14.25</v>
+        <v>14.69</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>7.08</v>
       </c>
       <c r="I11" t="n">
-        <v>7.25</v>
+        <v>7.62</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K11" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E15" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F15" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G15" t="n">
-        <v>20.83</v>
+        <v>20.58</v>
       </c>
       <c r="H15" t="n">
-        <v>10.83</v>
+        <v>10.79</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E16" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F16" t="n">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>17.14</v>
       </c>
       <c r="H16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F17" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G17" t="n">
-        <v>14.67</v>
+        <v>14.4</v>
       </c>
       <c r="H17" t="n">
-        <v>8.890000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F18" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G18" t="n">
-        <v>17.77</v>
+        <v>17.52</v>
       </c>
       <c r="H18" t="n">
-        <v>8.550000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="I18" t="n">
-        <v>9.23</v>
+        <v>9.17</v>
       </c>
       <c r="J18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E23" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F23" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G23" t="n">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.23</v>
       </c>
       <c r="I23" t="n">
-        <v>8.42</v>
+        <v>8.23</v>
       </c>
       <c r="J23" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="n">
         <v>4</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E24" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F24" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G24" t="n">
-        <v>18.36</v>
+        <v>18.09</v>
       </c>
       <c r="H24" t="n">
-        <v>7.41</v>
+        <v>7.26</v>
       </c>
       <c r="I24" t="n">
-        <v>10.95</v>
+        <v>10.83</v>
       </c>
       <c r="J24" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>8</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-07 07:03:31</t>
+          <t>2025-11-08 03:03:59</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-08 03:03:59</t>
+          <t>2025-11-08 07:03:51</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" t="n">
-        <v>17.38</v>
+        <v>16.94</v>
       </c>
       <c r="H4" t="n">
-        <v>7.56</v>
+        <v>7.35</v>
       </c>
       <c r="I4" t="n">
-        <v>9.81</v>
+        <v>9.59</v>
       </c>
       <c r="J4" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E5" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F5" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
-        <v>15.86</v>
+        <v>15.96</v>
       </c>
       <c r="H5" t="n">
-        <v>8.68</v>
+        <v>8.65</v>
       </c>
       <c r="I5" t="n">
-        <v>7.18</v>
+        <v>7.3</v>
       </c>
       <c r="J5" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E9" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F9" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G9" t="n">
-        <v>16.18</v>
+        <v>15.91</v>
       </c>
       <c r="H9" t="n">
-        <v>8.77</v>
+        <v>8.57</v>
       </c>
       <c r="I9" t="n">
-        <v>7.41</v>
+        <v>7.35</v>
       </c>
       <c r="J9" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G10" t="n">
-        <v>18.86</v>
+        <v>18.4</v>
       </c>
       <c r="H10" t="n">
-        <v>9.289999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>9.57</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F11" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>26.44</v>
       </c>
       <c r="H11" t="n">
-        <v>12.67</v>
+        <v>12.38</v>
       </c>
       <c r="I11" t="n">
-        <v>14.33</v>
+        <v>14.06</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2290,28 +2290,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E14" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14" t="n">
         <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>12.85</v>
+        <v>12.21</v>
       </c>
       <c r="H14" t="n">
-        <v>6.62</v>
+        <v>6.43</v>
       </c>
       <c r="I14" t="n">
-        <v>6.23</v>
+        <v>5.79</v>
       </c>
       <c r="J14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" t="n">
         <v>38</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E15" t="n">
         <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>14.29</v>
+        <v>13.73</v>
       </c>
       <c r="H15" t="n">
-        <v>6.43</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>7.86</v>
+        <v>7.73</v>
       </c>
       <c r="J15" t="n">
         <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E23" t="n">
         <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G23" t="n">
-        <v>13.46</v>
+        <v>12.93</v>
       </c>
       <c r="H23" t="n">
-        <v>4.77</v>
+        <v>4.43</v>
       </c>
       <c r="I23" t="n">
-        <v>8.69</v>
+        <v>8.5</v>
       </c>
       <c r="J23" t="n">
         <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E3" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F3" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9</v>
+        <v>14.67</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>7.71</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G6" t="n">
-        <v>18.58</v>
+        <v>18.54</v>
       </c>
       <c r="H6" t="n">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="I6" t="n">
-        <v>10.92</v>
+        <v>10.85</v>
       </c>
       <c r="J6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E7" t="n">
         <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G7" t="n">
-        <v>17.42</v>
+        <v>16.54</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.54</v>
       </c>
       <c r="I7" t="n">
-        <v>11.42</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>36</v>
       </c>
       <c r="K7" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E12" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F12" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G12" t="n">
-        <v>17.68</v>
+        <v>17.4</v>
       </c>
       <c r="H12" t="n">
-        <v>8.369999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="I12" t="n">
-        <v>9.32</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4721,28 +4721,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E14" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" t="n">
         <v>190</v>
       </c>
       <c r="G14" t="n">
-        <v>17.18</v>
+        <v>16.61</v>
       </c>
       <c r="H14" t="n">
-        <v>8.550000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="I14" t="n">
-        <v>8.640000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="J14" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K14" t="n">
         <v>90</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E19" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F19" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G19" t="n">
         <v>17.95</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K19" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5267,28 +5267,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F20" t="n">
         <v>129</v>
       </c>
       <c r="G20" t="n">
-        <v>17.33</v>
+        <v>16.5</v>
       </c>
       <c r="H20" t="n">
-        <v>8.73</v>
+        <v>8.44</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>8.06</v>
       </c>
       <c r="J20" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20" t="n">
         <v>62</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E21" t="n">
         <v>213</v>
       </c>
       <c r="F21" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G21" t="n">
-        <v>21.29</v>
+        <v>20.68</v>
       </c>
       <c r="H21" t="n">
-        <v>8.880000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="I21" t="n">
-        <v>12.42</v>
+        <v>12.16</v>
       </c>
       <c r="J21" t="n">
         <v>99</v>
       </c>
       <c r="K21" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-08 07:03:51</t>
+          <t>2025-11-09 03:02:37</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 03:02:37</t>
+          <t>2025-11-09 04:53:53</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 04:53:53</t>
+          <t>2025-11-09 07:04:13</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F2" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>23.18</v>
+        <v>23.04</v>
       </c>
       <c r="H2" t="n">
-        <v>10.09</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>13.09</v>
+        <v>13.04</v>
       </c>
       <c r="J2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E3" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F3" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G3" t="n">
-        <v>18.23</v>
+        <v>18.13</v>
       </c>
       <c r="H3" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="I3" t="n">
-        <v>10.27</v>
+        <v>10.17</v>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E6" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F6" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G6" t="n">
-        <v>18.41</v>
+        <v>17.87</v>
       </c>
       <c r="H6" t="n">
-        <v>7.68</v>
+        <v>7.43</v>
       </c>
       <c r="I6" t="n">
-        <v>10.73</v>
+        <v>10.43</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G7" t="n">
-        <v>13.36</v>
+        <v>13.53</v>
       </c>
       <c r="H7" t="n">
-        <v>5.71</v>
+        <v>5.87</v>
       </c>
       <c r="I7" t="n">
-        <v>7.64</v>
+        <v>7.67</v>
       </c>
       <c r="J7" t="n">
+        <v>44</v>
+      </c>
+      <c r="K7" t="n">
         <v>40</v>
-      </c>
-      <c r="K7" t="n">
-        <v>36</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E24" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F24" t="n">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G24" t="n">
-        <v>15.64</v>
+        <v>15.83</v>
       </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>7.52</v>
       </c>
       <c r="I24" t="n">
-        <v>8.140000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E25" t="n">
+        <v>196</v>
+      </c>
+      <c r="F25" t="n">
         <v>194</v>
       </c>
-      <c r="F25" t="n">
-        <v>190</v>
-      </c>
       <c r="G25" t="n">
-        <v>17.45</v>
+        <v>16.96</v>
       </c>
       <c r="H25" t="n">
-        <v>8.82</v>
+        <v>8.52</v>
       </c>
       <c r="I25" t="n">
-        <v>8.640000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="J25" t="n">
+        <v>93</v>
+      </c>
+      <c r="K25" t="n">
         <v>92</v>
-      </c>
-      <c r="K25" t="n">
-        <v>90</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F8" t="n">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G8" t="n">
-        <v>14.6</v>
+        <v>14.86</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.76</v>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E9" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F9" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G9" t="n">
-        <v>18.75</v>
+        <v>18.81</v>
       </c>
       <c r="H9" t="n">
-        <v>8.65</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>10.1</v>
+        <v>10.19</v>
       </c>
       <c r="J9" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G11" t="n">
-        <v>14.69</v>
+        <v>14.79</v>
       </c>
       <c r="H11" t="n">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="I11" t="n">
-        <v>7.62</v>
+        <v>7.64</v>
       </c>
       <c r="J11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E16" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F16" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G16" t="n">
-        <v>17.14</v>
+        <v>17.09</v>
       </c>
       <c r="H16" t="n">
-        <v>8.289999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="I16" t="n">
-        <v>8.859999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>10</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" t="n">
-        <v>14.4</v>
+        <v>13.64</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.64</v>
       </c>
       <c r="J17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E18" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G18" t="n">
-        <v>17.52</v>
+        <v>17.04</v>
       </c>
       <c r="H18" t="n">
-        <v>8.35</v>
+        <v>8.08</v>
       </c>
       <c r="I18" t="n">
-        <v>9.17</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-09 07:04:13</t>
+          <t>2025-11-10 03:06:39</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-10 03:06:39</t>
+          <t>2025-11-10 07:06:41</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E4" t="n">
         <v>125</v>
       </c>
       <c r="F4" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G4" t="n">
-        <v>16.94</v>
+        <v>16.44</v>
       </c>
       <c r="H4" t="n">
-        <v>7.35</v>
+        <v>6.94</v>
       </c>
       <c r="I4" t="n">
-        <v>9.59</v>
+        <v>9.5</v>
       </c>
       <c r="J4" t="n">
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E8" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F8" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G8" t="n">
-        <v>18.9</v>
+        <v>18.76</v>
       </c>
       <c r="H8" t="n">
-        <v>9.25</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.65</v>
+        <v>9.48</v>
       </c>
       <c r="J8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E9" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G9" t="n">
-        <v>15.91</v>
+        <v>15.58</v>
       </c>
       <c r="H9" t="n">
-        <v>8.57</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>7.35</v>
+        <v>7.21</v>
       </c>
       <c r="J9" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E10" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F10" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G10" t="n">
-        <v>18.4</v>
+        <v>18.25</v>
       </c>
       <c r="H10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K10" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G14" t="n">
-        <v>12.21</v>
+        <v>12.07</v>
       </c>
       <c r="H14" t="n">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.79</v>
+        <v>5.67</v>
       </c>
       <c r="J14" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E15" t="n">
         <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G15" t="n">
-        <v>13.73</v>
+        <v>13.38</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5.63</v>
       </c>
       <c r="I15" t="n">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="J15" t="n">
         <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E16" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F16" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>19.83</v>
       </c>
       <c r="H16" t="n">
-        <v>9.68</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>10.32</v>
+        <v>10.13</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K16" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E18" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F18" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>6.87</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7.83</v>
       </c>
       <c r="J18" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K18" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F19" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G19" t="n">
-        <v>18.35</v>
+        <v>18.22</v>
       </c>
       <c r="H19" t="n">
-        <v>8.470000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="I19" t="n">
-        <v>9.880000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="J19" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K19" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E20" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F20" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G20" t="n">
-        <v>17.29</v>
+        <v>17.14</v>
       </c>
       <c r="H20" t="n">
-        <v>7.05</v>
+        <v>7.18</v>
       </c>
       <c r="I20" t="n">
-        <v>10.24</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K20" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F21" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G21" t="n">
-        <v>14.94</v>
+        <v>14.58</v>
       </c>
       <c r="H21" t="n">
-        <v>6.56</v>
+        <v>6.42</v>
       </c>
       <c r="I21" t="n">
-        <v>8.390000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="J21" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E22" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F22" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G22" t="n">
-        <v>19.63</v>
+        <v>18.94</v>
       </c>
       <c r="H22" t="n">
-        <v>7.75</v>
+        <v>7.53</v>
       </c>
       <c r="I22" t="n">
-        <v>11.88</v>
+        <v>11.41</v>
       </c>
       <c r="J22" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K22" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3629,40 +3629,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F2" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G2" t="n">
-        <v>18.77</v>
+        <v>19.57</v>
       </c>
       <c r="H2" t="n">
-        <v>7.38</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>11.38</v>
+        <v>11.21</v>
       </c>
       <c r="J2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E3" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F3" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G3" t="n">
-        <v>14.67</v>
+        <v>14.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6.95</v>
+        <v>7.09</v>
       </c>
       <c r="I3" t="n">
-        <v>7.71</v>
+        <v>7.55</v>
       </c>
       <c r="J3" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K3" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" t="n">
-        <v>16.55</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>7.09</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.449999999999999</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>14.67</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
-        <v>7.56</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -3993,40 +3993,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F6" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G6" t="n">
-        <v>18.54</v>
+        <v>19.36</v>
       </c>
       <c r="H6" t="n">
-        <v>7.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>10.85</v>
+        <v>10.71</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G7" t="n">
-        <v>16.54</v>
+        <v>15.93</v>
       </c>
       <c r="H7" t="n">
-        <v>5.54</v>
+        <v>5.43</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G11" t="n">
-        <v>14.79</v>
+        <v>14.33</v>
       </c>
       <c r="H11" t="n">
-        <v>7.14</v>
+        <v>6.67</v>
       </c>
       <c r="I11" t="n">
-        <v>7.64</v>
+        <v>7.67</v>
       </c>
       <c r="J11" t="n">
         <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E19" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F19" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G19" t="n">
-        <v>17.95</v>
+        <v>17.86</v>
       </c>
       <c r="H19" t="n">
-        <v>8.380000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>9.57</v>
+        <v>9.41</v>
       </c>
       <c r="J19" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E21" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G21" t="n">
-        <v>20.68</v>
+        <v>20.19</v>
       </c>
       <c r="H21" t="n">
-        <v>8.52</v>
+        <v>8.35</v>
       </c>
       <c r="I21" t="n">
-        <v>12.16</v>
+        <v>11.85</v>
       </c>
       <c r="J21" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K21" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E22" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G22" t="n">
-        <v>16.19</v>
+        <v>16.18</v>
       </c>
       <c r="H22" t="n">
-        <v>7.75</v>
+        <v>7.88</v>
       </c>
       <c r="I22" t="n">
-        <v>8.44</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K22" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E24" t="n">
         <v>167</v>
       </c>
       <c r="F24" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G24" t="n">
-        <v>18.09</v>
+        <v>17.67</v>
       </c>
       <c r="H24" t="n">
-        <v>7.26</v>
+        <v>6.96</v>
       </c>
       <c r="I24" t="n">
-        <v>10.83</v>
+        <v>10.71</v>
       </c>
       <c r="J24" t="n">
         <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E26" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F26" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G26" t="n">
-        <v>21.79</v>
+        <v>21.1</v>
       </c>
       <c r="H26" t="n">
-        <v>9.210000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>12.58</v>
+        <v>12.15</v>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K26" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-10 07:06:41</t>
+          <t>2025-11-11 07:06:04</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,37 +1198,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="E2" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G2" t="n">
-        <v>23.04</v>
+        <v>23.63</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9.67</v>
       </c>
       <c r="I2" t="n">
-        <v>13.04</v>
+        <v>13.96</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="E6" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F6" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G6" t="n">
-        <v>17.87</v>
+        <v>17.71</v>
       </c>
       <c r="H6" t="n">
-        <v>7.43</v>
+        <v>7.38</v>
       </c>
       <c r="I6" t="n">
-        <v>10.43</v>
+        <v>10.33</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3200,37 +3200,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="E24" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F24" t="n">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G24" t="n">
-        <v>15.83</v>
+        <v>16.71</v>
       </c>
       <c r="H24" t="n">
-        <v>7.52</v>
+        <v>7.29</v>
       </c>
       <c r="I24" t="n">
-        <v>8.300000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3257,11 +3257,11 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
+        <v>12</v>
+      </c>
+      <c r="W24" t="n">
         <v>10</v>
       </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
       <c r="X24" t="n">
         <v>2</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E25" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F25" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G25" t="n">
-        <v>16.96</v>
+        <v>16.83</v>
       </c>
       <c r="H25" t="n">
-        <v>8.52</v>
+        <v>8.42</v>
       </c>
       <c r="I25" t="n">
-        <v>8.43</v>
+        <v>8.42</v>
       </c>
       <c r="J25" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K25" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4175,37 +4175,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" t="n">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="G8" t="n">
-        <v>14.86</v>
+        <v>15.86</v>
       </c>
       <c r="H8" t="n">
-        <v>6.1</v>
+        <v>5.91</v>
       </c>
       <c r="I8" t="n">
-        <v>8.76</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -4232,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4266,37 +4266,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="E9" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" t="n">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G9" t="n">
-        <v>18.81</v>
+        <v>19.64</v>
       </c>
       <c r="H9" t="n">
-        <v>8.619999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="I9" t="n">
-        <v>10.19</v>
+        <v>11.32</v>
       </c>
       <c r="J9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
         <v>2</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F17" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G17" t="n">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7.83</v>
       </c>
       <c r="I17" t="n">
-        <v>5.64</v>
+        <v>5.83</v>
       </c>
       <c r="J17" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E18" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F18" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G18" t="n">
-        <v>17.04</v>
+        <v>16.92</v>
       </c>
       <c r="H18" t="n">
-        <v>8.08</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>8.960000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="J18" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K18" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-11 07:06:04</t>
+          <t>2025-11-12 09:26:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1471,37 +1471,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="E5" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G5" t="n">
-        <v>15.96</v>
+        <v>16.63</v>
       </c>
       <c r="H5" t="n">
-        <v>8.65</v>
+        <v>8.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7.3</v>
+        <v>7.88</v>
       </c>
       <c r="J5" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E8" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F8" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" t="n">
-        <v>18.76</v>
+        <v>18.27</v>
       </c>
       <c r="H8" t="n">
-        <v>9.289999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>9.48</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="E11" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F11" t="n">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G11" t="n">
-        <v>26.44</v>
+        <v>26.76</v>
       </c>
       <c r="H11" t="n">
-        <v>12.38</v>
+        <v>12.29</v>
       </c>
       <c r="I11" t="n">
-        <v>14.06</v>
+        <v>14.47</v>
       </c>
       <c r="J11" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K11" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2108,37 +2108,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E12" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G12" t="n">
-        <v>17.64</v>
+        <v>17.47</v>
       </c>
       <c r="H12" t="n">
-        <v>7.29</v>
+        <v>7.07</v>
       </c>
       <c r="I12" t="n">
-        <v>10.36</v>
+        <v>10.4</v>
       </c>
       <c r="J12" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2290,37 +2290,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E14" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" t="n">
-        <v>12.07</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="I14" t="n">
-        <v>5.67</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="E16" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F16" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G16" t="n">
-        <v>19.83</v>
+        <v>19.5</v>
       </c>
       <c r="H16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>10.13</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K16" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E19" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F19" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G19" t="n">
-        <v>18.22</v>
+        <v>17.68</v>
       </c>
       <c r="H19" t="n">
-        <v>8.56</v>
+        <v>8.42</v>
       </c>
       <c r="I19" t="n">
-        <v>9.67</v>
+        <v>9.26</v>
       </c>
       <c r="J19" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K19" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2836,37 +2836,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E20" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F20" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G20" t="n">
-        <v>17.14</v>
+        <v>17.04</v>
       </c>
       <c r="H20" t="n">
-        <v>7.18</v>
+        <v>7.04</v>
       </c>
       <c r="I20" t="n">
-        <v>9.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2927,37 +2927,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E21" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F21" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G21" t="n">
-        <v>14.58</v>
+        <v>14.4</v>
       </c>
       <c r="H21" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="I21" t="n">
-        <v>8.16</v>
+        <v>8.1</v>
       </c>
       <c r="J21" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E22" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G22" t="n">
-        <v>18.94</v>
+        <v>18.56</v>
       </c>
       <c r="H22" t="n">
-        <v>7.53</v>
+        <v>7.44</v>
       </c>
       <c r="I22" t="n">
-        <v>11.41</v>
+        <v>11.11</v>
       </c>
       <c r="J22" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K22" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E3" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F3" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
-        <v>14.64</v>
+        <v>14.35</v>
       </c>
       <c r="H3" t="n">
-        <v>7.09</v>
+        <v>7.04</v>
       </c>
       <c r="I3" t="n">
-        <v>7.55</v>
+        <v>7.3</v>
       </c>
       <c r="J3" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4448,37 +4448,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G11" t="n">
-        <v>14.33</v>
+        <v>14.13</v>
       </c>
       <c r="H11" t="n">
-        <v>6.67</v>
+        <v>6.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.67</v>
+        <v>7.63</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4903,37 +4903,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="E16" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F16" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G16" t="n">
-        <v>17.09</v>
+        <v>17.74</v>
       </c>
       <c r="H16" t="n">
-        <v>8.27</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>8.82</v>
+        <v>9.35</v>
       </c>
       <c r="J16" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W16" t="n">
         <v>10</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E22" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F22" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G22" t="n">
-        <v>16.18</v>
+        <v>15.94</v>
       </c>
       <c r="H22" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="I22" t="n">
-        <v>8.289999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="J22" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5631,37 +5631,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E24" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F24" t="n">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G24" t="n">
-        <v>17.67</v>
+        <v>18.24</v>
       </c>
       <c r="H24" t="n">
-        <v>6.96</v>
+        <v>7.12</v>
       </c>
       <c r="I24" t="n">
-        <v>10.71</v>
+        <v>11.12</v>
       </c>
       <c r="J24" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K24" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>14</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5813,37 +5813,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="E26" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F26" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G26" t="n">
-        <v>21.1</v>
+        <v>20.81</v>
       </c>
       <c r="H26" t="n">
-        <v>8.949999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>12.15</v>
+        <v>12.1</v>
       </c>
       <c r="J26" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K26" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-12 09:26:38</t>
+          <t>2025-11-13 03:04:09</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 03:04:09</t>
+          <t>2025-11-13 04:11:37</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 04:11:37</t>
+          <t>2025-11-13 09:48:49</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E3" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F3" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G3" t="n">
-        <v>18.13</v>
+        <v>17.79</v>
       </c>
       <c r="H3" t="n">
-        <v>7.96</v>
+        <v>7.88</v>
       </c>
       <c r="I3" t="n">
-        <v>10.17</v>
+        <v>9.92</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K3" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" t="n">
-        <v>13.53</v>
+        <v>13.19</v>
       </c>
       <c r="H7" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="I7" t="n">
-        <v>7.67</v>
+        <v>7.31</v>
       </c>
       <c r="J7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E9" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F9" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G9" t="n">
-        <v>15.58</v>
+        <v>15.36</v>
       </c>
       <c r="H9" t="n">
-        <v>8.380000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.21</v>
+        <v>7.08</v>
       </c>
       <c r="J9" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>20</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E24" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F24" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G24" t="n">
-        <v>16.71</v>
+        <v>16.36</v>
       </c>
       <c r="H24" t="n">
-        <v>7.29</v>
+        <v>7.24</v>
       </c>
       <c r="I24" t="n">
-        <v>9.42</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -3902,64 +3902,64 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>148</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39</v>
-      </c>
-      <c r="K5" t="n">
-        <v>35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F9" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G9" t="n">
-        <v>19.64</v>
+        <v>19.13</v>
       </c>
       <c r="H9" t="n">
-        <v>8.32</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>11.32</v>
+        <v>10.91</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K9" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E15" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F15" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G15" t="n">
-        <v>20.58</v>
+        <v>20.05</v>
       </c>
       <c r="H15" t="n">
-        <v>10.79</v>
+        <v>10.55</v>
       </c>
       <c r="I15" t="n">
-        <v>9.789999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-13 09:48:49</t>
+          <t>2025-11-14 07:04:20</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-14 07:04:20</t>
+          <t>2025-11-14 10:23:32</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E2" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G2" t="n">
-        <v>23.63</v>
+        <v>22.84</v>
       </c>
       <c r="H2" t="n">
-        <v>9.67</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>13.96</v>
+        <v>13.48</v>
       </c>
       <c r="J2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="E25" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F25" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G25" t="n">
-        <v>16.83</v>
+        <v>16.8</v>
       </c>
       <c r="H25" t="n">
-        <v>8.42</v>
+        <v>8.24</v>
       </c>
       <c r="I25" t="n">
-        <v>8.42</v>
+        <v>8.56</v>
       </c>
       <c r="J25" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3351,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G2" t="n">
-        <v>19.57</v>
+        <v>18.53</v>
       </c>
       <c r="H2" t="n">
-        <v>8.359999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="I2" t="n">
-        <v>11.21</v>
+        <v>10.6</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6" t="n">
-        <v>19.36</v>
+        <v>18.33</v>
       </c>
       <c r="H6" t="n">
-        <v>8.640000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>10.71</v>
+        <v>10.13</v>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G7" t="n">
         <v>15.93</v>
       </c>
       <c r="H7" t="n">
-        <v>5.43</v>
+        <v>5.33</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="E18" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F18" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G18" t="n">
-        <v>16.92</v>
+        <v>16.88</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="I18" t="n">
-        <v>8.92</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-14 10:23:32</t>
+          <t>2025-11-15 07:05:56</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E3" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F3" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G3" t="n">
-        <v>17.79</v>
+        <v>17.56</v>
       </c>
       <c r="H3" t="n">
         <v>7.88</v>
       </c>
       <c r="I3" t="n">
-        <v>9.92</v>
+        <v>9.68</v>
       </c>
       <c r="J3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F5" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" t="n">
-        <v>16.63</v>
+        <v>16.44</v>
       </c>
       <c r="H5" t="n">
-        <v>8.75</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>7.88</v>
+        <v>7.72</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E10" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F10" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G10" t="n">
-        <v>18.25</v>
+        <v>17.76</v>
       </c>
       <c r="H10" t="n">
-        <v>9.25</v>
+        <v>9.18</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>8.59</v>
       </c>
       <c r="J10" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2108,34 +2108,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="E12" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G12" t="n">
-        <v>17.47</v>
+        <v>17.56</v>
       </c>
       <c r="H12" t="n">
-        <v>7.07</v>
+        <v>7.44</v>
       </c>
       <c r="I12" t="n">
-        <v>10.4</v>
+        <v>10.13</v>
       </c>
       <c r="J12" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K12" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>6</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F13" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" t="n">
-        <v>16.11</v>
+        <v>15.5</v>
       </c>
       <c r="H13" t="n">
-        <v>8.890000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>7.22</v>
+        <v>6.7</v>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2290,34 +2290,34 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>12.41</v>
       </c>
       <c r="H14" t="n">
-        <v>6.25</v>
+        <v>6.65</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K14" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>14.36</v>
+        <v>14.17</v>
       </c>
       <c r="H5" t="n">
-        <v>7.64</v>
+        <v>7.67</v>
       </c>
       <c r="I5" t="n">
-        <v>6.73</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E15" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F15" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G15" t="n">
-        <v>20.05</v>
+        <v>19.67</v>
       </c>
       <c r="H15" t="n">
-        <v>10.55</v>
+        <v>10.43</v>
       </c>
       <c r="I15" t="n">
-        <v>9.5</v>
+        <v>9.24</v>
       </c>
       <c r="J15" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K15" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E19" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F19" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G19" t="n">
-        <v>17.86</v>
+        <v>17.52</v>
       </c>
       <c r="H19" t="n">
-        <v>8.449999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="I19" t="n">
-        <v>9.41</v>
+        <v>9.09</v>
       </c>
       <c r="J19" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K19" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5358,34 +5358,34 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="E21" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F21" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G21" t="n">
-        <v>20.19</v>
+        <v>20.15</v>
       </c>
       <c r="H21" t="n">
-        <v>8.35</v>
+        <v>8.52</v>
       </c>
       <c r="I21" t="n">
-        <v>11.85</v>
+        <v>11.63</v>
       </c>
       <c r="J21" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K21" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5631,34 +5631,34 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="E24" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F24" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G24" t="n">
-        <v>18.24</v>
+        <v>18.27</v>
       </c>
       <c r="H24" t="n">
-        <v>7.12</v>
+        <v>7.35</v>
       </c>
       <c r="I24" t="n">
-        <v>11.12</v>
+        <v>10.92</v>
       </c>
       <c r="J24" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K24" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
         <v>14</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E26" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F26" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G26" t="n">
-        <v>20.81</v>
+        <v>20.32</v>
       </c>
       <c r="H26" t="n">
-        <v>8.710000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="I26" t="n">
-        <v>12.1</v>
+        <v>11.64</v>
       </c>
       <c r="J26" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K26" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-15 07:05:56</t>
+          <t>2025-11-16 03:06:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,37 +1198,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E2" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F2" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G2" t="n">
-        <v>22.84</v>
+        <v>22.42</v>
       </c>
       <c r="H2" t="n">
-        <v>9.359999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="I2" t="n">
-        <v>13.48</v>
+        <v>13.23</v>
       </c>
       <c r="J2" t="n">
         <v>102</v>
       </c>
       <c r="K2" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="E6" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G6" t="n">
-        <v>17.71</v>
+        <v>17.48</v>
       </c>
       <c r="H6" t="n">
-        <v>7.38</v>
+        <v>7.48</v>
       </c>
       <c r="I6" t="n">
-        <v>10.33</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="E8" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F8" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G8" t="n">
-        <v>18.27</v>
+        <v>18.09</v>
       </c>
       <c r="H8" t="n">
-        <v>9.140000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="I8" t="n">
-        <v>9.140000000000001</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K8" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2017,34 +2017,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="E11" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F11" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G11" t="n">
-        <v>26.76</v>
+        <v>26.11</v>
       </c>
       <c r="H11" t="n">
-        <v>12.29</v>
+        <v>12.11</v>
       </c>
       <c r="I11" t="n">
-        <v>14.47</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K11" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="E16" t="n">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G16" t="n">
-        <v>19.5</v>
+        <v>19.32</v>
       </c>
       <c r="H16" t="n">
-        <v>9.539999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="I16" t="n">
-        <v>9.960000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2563,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F17" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G17" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>6.19</v>
       </c>
       <c r="I17" t="n">
-        <v>10.6</v>
+        <v>10.31</v>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="E18" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F18" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>14.7</v>
+        <v>15.08</v>
       </c>
       <c r="H18" t="n">
-        <v>6.87</v>
+        <v>7.08</v>
       </c>
       <c r="I18" t="n">
-        <v>7.83</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K18" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E19" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F19" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G19" t="n">
-        <v>17.68</v>
+        <v>17.5</v>
       </c>
       <c r="H19" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>9.26</v>
+        <v>9.1</v>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="E20" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F20" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G20" t="n">
-        <v>17.04</v>
+        <v>17.17</v>
       </c>
       <c r="H20" t="n">
-        <v>7.04</v>
+        <v>7.25</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>9.92</v>
       </c>
       <c r="J20" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K20" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E21" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F21" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G21" t="n">
-        <v>14.4</v>
+        <v>14.67</v>
       </c>
       <c r="H21" t="n">
-        <v>6.3</v>
+        <v>6.57</v>
       </c>
       <c r="I21" t="n">
         <v>8.1</v>
       </c>
       <c r="J21" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K21" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3109,34 +3109,34 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E23" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F23" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G23" t="n">
-        <v>12.93</v>
+        <v>13.07</v>
       </c>
       <c r="H23" t="n">
-        <v>4.43</v>
+        <v>4.73</v>
       </c>
       <c r="I23" t="n">
-        <v>8.5</v>
+        <v>8.33</v>
       </c>
       <c r="J23" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="E24" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F24" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G24" t="n">
-        <v>16.36</v>
+        <v>16.65</v>
       </c>
       <c r="H24" t="n">
-        <v>7.24</v>
+        <v>7.42</v>
       </c>
       <c r="I24" t="n">
-        <v>9.119999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="J24" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K24" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G2" t="n">
-        <v>18.53</v>
+        <v>18.88</v>
       </c>
       <c r="H2" t="n">
-        <v>7.93</v>
+        <v>8.19</v>
       </c>
       <c r="I2" t="n">
-        <v>10.6</v>
+        <v>10.69</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3720,34 +3720,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E3" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F3" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G3" t="n">
-        <v>14.35</v>
+        <v>14.38</v>
       </c>
       <c r="H3" t="n">
-        <v>7.04</v>
+        <v>7.13</v>
       </c>
       <c r="I3" t="n">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="J3" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E12" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F12" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G12" t="n">
-        <v>17.4</v>
+        <v>17.71</v>
       </c>
       <c r="H12" t="n">
-        <v>8.35</v>
+        <v>8.52</v>
       </c>
       <c r="I12" t="n">
-        <v>9.050000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="J12" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K12" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="E14" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F14" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G14" t="n">
-        <v>16.61</v>
+        <v>16.75</v>
       </c>
       <c r="H14" t="n">
-        <v>8.35</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>8.26</v>
+        <v>8.25</v>
       </c>
       <c r="J14" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K14" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -4903,37 +4903,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="E16" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F16" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G16" t="n">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="H16" t="n">
-        <v>8.390000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="I16" t="n">
-        <v>9.35</v>
+        <v>9.25</v>
       </c>
       <c r="J16" t="n">
         <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E18" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F18" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G18" t="n">
-        <v>16.88</v>
+        <v>16.7</v>
       </c>
       <c r="H18" t="n">
-        <v>7.85</v>
+        <v>7.93</v>
       </c>
       <c r="I18" t="n">
-        <v>9.039999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5540,34 +5540,34 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E23" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F23" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G23" t="n">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H23" t="n">
-        <v>7.23</v>
+        <v>7.36</v>
       </c>
       <c r="I23" t="n">
-        <v>8.23</v>
+        <v>8.07</v>
       </c>
       <c r="J23" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="E26" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F26" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G26" t="n">
-        <v>20.32</v>
+        <v>20.04</v>
       </c>
       <c r="H26" t="n">
-        <v>8.68</v>
+        <v>8.65</v>
       </c>
       <c r="I26" t="n">
-        <v>11.64</v>
+        <v>11.39</v>
       </c>
       <c r="J26" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K26" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-16 03:06:38</t>
+          <t>2025-11-17 03:04:14</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 03:04:14</t>
+          <t>2025-11-17 11:13:31</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E4" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44</v>
+        <v>16.42</v>
       </c>
       <c r="H4" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2290,37 +2290,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G14" t="n">
-        <v>12.41</v>
+        <v>12.22</v>
       </c>
       <c r="H14" t="n">
-        <v>6.65</v>
+        <v>6.39</v>
       </c>
       <c r="I14" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="J14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2381,37 +2381,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="E15" t="n">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F15" t="n">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G15" t="n">
-        <v>13.38</v>
+        <v>17.06</v>
       </c>
       <c r="H15" t="n">
-        <v>5.63</v>
+        <v>8.06</v>
       </c>
       <c r="I15" t="n">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3018,37 +3018,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>334</v>
+        <v>410</v>
       </c>
       <c r="E22" t="n">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="G22" t="n">
-        <v>18.56</v>
+        <v>21.58</v>
       </c>
       <c r="H22" t="n">
-        <v>7.44</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>11.11</v>
+        <v>12.05</v>
       </c>
       <c r="J22" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K22" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3291,37 +3291,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E25" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F25" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G25" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="H25" t="n">
-        <v>8.24</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>8.56</v>
+        <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E8" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G8" t="n">
-        <v>15.86</v>
+        <v>15.87</v>
       </c>
       <c r="H8" t="n">
         <v>5.91</v>
       </c>
       <c r="I8" t="n">
-        <v>9.949999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K8" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -4994,37 +4994,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="E17" t="n">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G17" t="n">
-        <v>13.67</v>
+        <v>18.46</v>
       </c>
       <c r="H17" t="n">
-        <v>7.83</v>
+        <v>10.85</v>
       </c>
       <c r="I17" t="n">
-        <v>5.83</v>
+        <v>7.62</v>
       </c>
       <c r="J17" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5358,37 +5358,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E21" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F21" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G21" t="n">
-        <v>20.15</v>
+        <v>19.75</v>
       </c>
       <c r="H21" t="n">
-        <v>8.52</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>11.63</v>
+        <v>11.46</v>
       </c>
       <c r="J21" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5449,37 +5449,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="E22" t="n">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F22" t="n">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="G22" t="n">
-        <v>15.94</v>
+        <v>19.11</v>
       </c>
       <c r="H22" t="n">
-        <v>7.78</v>
+        <v>9.84</v>
       </c>
       <c r="I22" t="n">
-        <v>8.17</v>
+        <v>9.26</v>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
         <v>20</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5631,37 +5631,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E24" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F24" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G24" t="n">
-        <v>18.27</v>
+        <v>17.93</v>
       </c>
       <c r="H24" t="n">
-        <v>7.35</v>
+        <v>7.15</v>
       </c>
       <c r="I24" t="n">
-        <v>10.92</v>
+        <v>10.78</v>
       </c>
       <c r="J24" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="E26" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F26" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G26" t="n">
-        <v>20.04</v>
+        <v>19.88</v>
       </c>
       <c r="H26" t="n">
-        <v>8.65</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>11.39</v>
+        <v>11.33</v>
       </c>
       <c r="J26" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 11:13:31</t>
+          <t>2025-11-17 23:26:53</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-17 23:26:53</t>
+          <t>2025-11-18 03:06:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 03:06:38</t>
+          <t>2025-11-18 07:06:23</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 07:06:23</t>
+          <t>2025-11-18 10:36:15</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1289,37 +1289,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E3" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G3" t="n">
-        <v>17.56</v>
+        <v>17.69</v>
       </c>
       <c r="H3" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="I3" t="n">
-        <v>9.68</v>
+        <v>9.73</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K3" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E4" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G4" t="n">
-        <v>16.42</v>
+        <v>16.3</v>
       </c>
       <c r="H4" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
       <c r="I4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E5" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F5" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44</v>
+        <v>16.27</v>
       </c>
       <c r="H5" t="n">
-        <v>8.720000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>7.72</v>
+        <v>7.65</v>
       </c>
       <c r="J5" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K5" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E6" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G6" t="n">
-        <v>17.48</v>
+        <v>17.19</v>
       </c>
       <c r="H6" t="n">
-        <v>7.48</v>
+        <v>7.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>9.69</v>
       </c>
       <c r="J6" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G7" t="n">
-        <v>13.19</v>
+        <v>13.24</v>
       </c>
       <c r="H7" t="n">
         <v>5.88</v>
       </c>
       <c r="I7" t="n">
-        <v>7.31</v>
+        <v>7.35</v>
       </c>
       <c r="J7" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E9" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F9" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G9" t="n">
-        <v>15.36</v>
+        <v>15.23</v>
       </c>
       <c r="H9" t="n">
-        <v>8.279999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="I9" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="J9" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W9" t="n">
         <v>20</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="E12" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56</v>
+        <v>17.47</v>
       </c>
       <c r="H12" t="n">
-        <v>7.44</v>
+        <v>7.71</v>
       </c>
       <c r="I12" t="n">
-        <v>10.13</v>
+        <v>9.76</v>
       </c>
       <c r="J12" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2472,28 +2472,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E16" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F16" t="n">
         <v>245</v>
       </c>
       <c r="G16" t="n">
-        <v>19.32</v>
+        <v>18.73</v>
       </c>
       <c r="H16" t="n">
-        <v>9.52</v>
+        <v>9.31</v>
       </c>
       <c r="I16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="J16" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" t="n">
         <v>90</v>
@@ -2535,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
         <v>5</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2654,37 +2654,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F18" t="n">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G18" t="n">
-        <v>15.08</v>
+        <v>15.32</v>
       </c>
       <c r="H18" t="n">
-        <v>7.08</v>
+        <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E19" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F19" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G19" t="n">
-        <v>17.5</v>
+        <v>17.43</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>8.57</v>
       </c>
       <c r="I19" t="n">
-        <v>9.1</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K19" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -2927,28 +2927,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E21" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F21" t="n">
         <v>170</v>
       </c>
       <c r="G21" t="n">
-        <v>14.67</v>
+        <v>14.18</v>
       </c>
       <c r="H21" t="n">
-        <v>6.57</v>
+        <v>6.45</v>
       </c>
       <c r="I21" t="n">
-        <v>8.1</v>
+        <v>7.73</v>
       </c>
       <c r="J21" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" t="n">
         <v>70</v>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
         <v>2</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E23" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F23" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G23" t="n">
-        <v>13.07</v>
+        <v>13.13</v>
       </c>
       <c r="H23" t="n">
-        <v>4.73</v>
+        <v>4.81</v>
       </c>
       <c r="I23" t="n">
-        <v>8.33</v>
+        <v>8.31</v>
       </c>
       <c r="J23" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E2" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G2" t="n">
-        <v>18.88</v>
+        <v>18.47</v>
       </c>
       <c r="H2" t="n">
-        <v>8.19</v>
+        <v>8.06</v>
       </c>
       <c r="I2" t="n">
-        <v>10.69</v>
+        <v>10.41</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E3" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F3" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G3" t="n">
-        <v>14.38</v>
+        <v>14.44</v>
       </c>
       <c r="H3" t="n">
-        <v>7.13</v>
+        <v>7.32</v>
       </c>
       <c r="I3" t="n">
-        <v>7.25</v>
+        <v>7.12</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3811,28 +3811,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
         <v>108</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>15.08</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.77</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8.31</v>
       </c>
       <c r="J4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" t="n">
         <v>44</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G5" t="n">
-        <v>14.17</v>
+        <v>14.15</v>
       </c>
       <c r="H5" t="n">
-        <v>7.67</v>
+        <v>7.54</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>6.62</v>
       </c>
       <c r="J5" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E6" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F6" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" t="n">
-        <v>18.33</v>
+        <v>17.81</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.13</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F7" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G7" t="n">
-        <v>15.93</v>
+        <v>15.81</v>
       </c>
       <c r="H7" t="n">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="I7" t="n">
-        <v>10.6</v>
+        <v>10.44</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="E8" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F8" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G8" t="n">
-        <v>15.87</v>
+        <v>15.79</v>
       </c>
       <c r="H8" t="n">
-        <v>5.91</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>9.960000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E9" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F9" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G9" t="n">
-        <v>19.13</v>
+        <v>18.92</v>
       </c>
       <c r="H9" t="n">
-        <v>8.220000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>10.91</v>
+        <v>10.71</v>
       </c>
       <c r="J9" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K9" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E15" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F15" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>19.67</v>
+        <v>19.32</v>
       </c>
       <c r="H15" t="n">
-        <v>10.43</v>
+        <v>10.23</v>
       </c>
       <c r="I15" t="n">
-        <v>9.24</v>
+        <v>9.09</v>
       </c>
       <c r="J15" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K15" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -4903,37 +4903,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="E16" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F16" t="n">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G16" t="n">
-        <v>17.5</v>
+        <v>17.64</v>
       </c>
       <c r="H16" t="n">
-        <v>8.25</v>
+        <v>8.32</v>
       </c>
       <c r="I16" t="n">
-        <v>9.25</v>
+        <v>9.32</v>
       </c>
       <c r="J16" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5540,28 +5540,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E23" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F23" t="n">
         <v>113</v>
       </c>
       <c r="G23" t="n">
-        <v>15.43</v>
+        <v>14.67</v>
       </c>
       <c r="H23" t="n">
-        <v>7.36</v>
+        <v>7.13</v>
       </c>
       <c r="I23" t="n">
-        <v>8.07</v>
+        <v>7.53</v>
       </c>
       <c r="J23" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23" t="n">
         <v>54</v>
@@ -5603,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="n">
         <v>4</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-18 10:36:15</t>
+          <t>2025-11-19 03:11:26</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 03:11:26</t>
+          <t>2025-11-19 07:08:30</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 07:08:30</t>
+          <t>2025-11-19 10:05:30</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E2" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F2" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G2" t="n">
-        <v>22.42</v>
+        <v>22.04</v>
       </c>
       <c r="H2" t="n">
-        <v>9.19</v>
+        <v>9.07</v>
       </c>
       <c r="I2" t="n">
-        <v>13.23</v>
+        <v>12.96</v>
       </c>
       <c r="J2" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K2" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="E11" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F11" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G11" t="n">
-        <v>26.11</v>
+        <v>25.79</v>
       </c>
       <c r="H11" t="n">
-        <v>12.11</v>
+        <v>11.89</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>13.89</v>
       </c>
       <c r="J11" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>14</v>
+      </c>
+      <c r="W11" t="n">
         <v>12</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E24" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F24" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G24" t="n">
-        <v>16.65</v>
+        <v>16.48</v>
       </c>
       <c r="H24" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="I24" t="n">
-        <v>9.23</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K24" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E25" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F25" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G25" t="n">
-        <v>16.5</v>
+        <v>16.63</v>
       </c>
       <c r="H25" t="n">
         <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>8.5</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K25" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3348,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E18" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F18" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G18" t="n">
-        <v>16.7</v>
+        <v>16.54</v>
       </c>
       <c r="H18" t="n">
-        <v>7.93</v>
+        <v>7.86</v>
       </c>
       <c r="I18" t="n">
-        <v>8.779999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="J18" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K18" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E20" t="n">
+        <v>141</v>
+      </c>
+      <c r="F20" t="n">
         <v>135</v>
       </c>
-      <c r="F20" t="n">
-        <v>129</v>
-      </c>
       <c r="G20" t="n">
-        <v>16.5</v>
+        <v>16.24</v>
       </c>
       <c r="H20" t="n">
-        <v>8.44</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>8.06</v>
+        <v>7.94</v>
       </c>
       <c r="J20" t="n">
+        <v>68</v>
+      </c>
+      <c r="K20" t="n">
         <v>65</v>
-      </c>
-      <c r="K20" t="n">
-        <v>62</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="E21" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F21" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G21" t="n">
-        <v>19.75</v>
+        <v>19.76</v>
       </c>
       <c r="H21" t="n">
-        <v>8.289999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>11.46</v>
+        <v>11.48</v>
       </c>
       <c r="J21" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K21" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -5415,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="E24" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F24" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G24" t="n">
-        <v>17.93</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>7.15</v>
+        <v>7.18</v>
       </c>
       <c r="I24" t="n">
-        <v>10.78</v>
+        <v>10.82</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-19 10:05:30</t>
+          <t>2025-11-20 03:04:15</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 03:04:15</t>
+          <t>2025-11-20 07:05:41</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 07:05:41</t>
+          <t>2025-11-20 12:15:05</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="E3" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F3" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G3" t="n">
-        <v>17.69</v>
+        <v>17.78</v>
       </c>
       <c r="H3" t="n">
-        <v>7.96</v>
+        <v>8.19</v>
       </c>
       <c r="I3" t="n">
-        <v>9.73</v>
+        <v>9.59</v>
       </c>
       <c r="J3" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K3" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F4" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G4" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="H4" t="n">
-        <v>6.95</v>
+        <v>6.81</v>
       </c>
       <c r="I4" t="n">
-        <v>9.35</v>
+        <v>9.1</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E5" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F5" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G5" t="n">
-        <v>16.27</v>
+        <v>16.04</v>
       </c>
       <c r="H5" t="n">
-        <v>8.619999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="J5" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E6" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F6" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19</v>
+        <v>16.93</v>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>7.44</v>
       </c>
       <c r="I6" t="n">
-        <v>9.69</v>
+        <v>9.48</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K6" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E8" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F8" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G8" t="n">
-        <v>18.09</v>
+        <v>18.08</v>
       </c>
       <c r="H8" t="n">
-        <v>9.09</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K8" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E12" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F12" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G12" t="n">
-        <v>17.47</v>
+        <v>17.06</v>
       </c>
       <c r="H12" t="n">
-        <v>7.71</v>
+        <v>7.39</v>
       </c>
       <c r="I12" t="n">
-        <v>9.76</v>
+        <v>9.67</v>
       </c>
       <c r="J12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>9</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="E19" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F19" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G19" t="n">
-        <v>17.43</v>
+        <v>17.55</v>
       </c>
       <c r="H19" t="n">
-        <v>8.57</v>
+        <v>8.82</v>
       </c>
       <c r="I19" t="n">
-        <v>8.859999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="J19" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K19" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E20" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F20" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" t="n">
-        <v>17.17</v>
+        <v>16.88</v>
       </c>
       <c r="H20" t="n">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="I20" t="n">
-        <v>9.92</v>
+        <v>9.68</v>
       </c>
       <c r="J20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K20" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E23" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F23" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" t="n">
-        <v>13.13</v>
+        <v>12.82</v>
       </c>
       <c r="H23" t="n">
-        <v>4.81</v>
+        <v>4.76</v>
       </c>
       <c r="I23" t="n">
-        <v>8.31</v>
+        <v>8.06</v>
       </c>
       <c r="J23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="E24" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F24" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G24" t="n">
-        <v>16.48</v>
+        <v>16.54</v>
       </c>
       <c r="H24" t="n">
-        <v>7.37</v>
+        <v>7.46</v>
       </c>
       <c r="I24" t="n">
-        <v>9.109999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="J24" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K24" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3257,11 +3257,11 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
+        <v>14</v>
+      </c>
+      <c r="W24" t="n">
         <v>12</v>
       </c>
-      <c r="W24" t="n">
-        <v>10</v>
-      </c>
       <c r="X24" t="n">
         <v>2</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E3" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G3" t="n">
-        <v>14.44</v>
+        <v>14.65</v>
       </c>
       <c r="H3" t="n">
-        <v>7.32</v>
+        <v>7.58</v>
       </c>
       <c r="I3" t="n">
-        <v>7.12</v>
+        <v>7.08</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K3" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G5" t="n">
-        <v>14.15</v>
+        <v>14.43</v>
       </c>
       <c r="H5" t="n">
-        <v>7.54</v>
+        <v>7.71</v>
       </c>
       <c r="I5" t="n">
-        <v>6.62</v>
+        <v>6.71</v>
       </c>
       <c r="J5" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3959,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E7" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G7" t="n">
-        <v>15.81</v>
+        <v>15.94</v>
       </c>
       <c r="H7" t="n">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
       <c r="I7" t="n">
-        <v>10.44</v>
+        <v>10.29</v>
       </c>
       <c r="J7" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4141,11 +4141,11 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
+        <v>10</v>
+      </c>
+      <c r="W7" t="n">
         <v>8</v>
       </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F8" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G8" t="n">
-        <v>15.79</v>
+        <v>15.48</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="I8" t="n">
-        <v>9.789999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="J8" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K8" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
         <v>4</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E9" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F9" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G9" t="n">
-        <v>18.92</v>
+        <v>18.48</v>
       </c>
       <c r="H9" t="n">
-        <v>8.210000000000001</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>10.71</v>
+        <v>10.44</v>
       </c>
       <c r="J9" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>4</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E14" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F14" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G14" t="n">
-        <v>16.75</v>
+        <v>16.48</v>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.25</v>
+        <v>8.08</v>
       </c>
       <c r="J14" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K14" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="E15" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G15" t="n">
-        <v>19.32</v>
+        <v>18.91</v>
       </c>
       <c r="H15" t="n">
-        <v>10.23</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>9.09</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E19" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F19" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G19" t="n">
-        <v>17.52</v>
+        <v>17.29</v>
       </c>
       <c r="H19" t="n">
-        <v>8.43</v>
+        <v>8.33</v>
       </c>
       <c r="I19" t="n">
-        <v>9.09</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E20" t="n">
+        <v>147</v>
+      </c>
+      <c r="F20" t="n">
         <v>141</v>
       </c>
-      <c r="F20" t="n">
-        <v>135</v>
-      </c>
       <c r="G20" t="n">
-        <v>16.24</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>8.289999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="I20" t="n">
-        <v>7.94</v>
+        <v>7.83</v>
       </c>
       <c r="J20" t="n">
+        <v>71</v>
+      </c>
+      <c r="K20" t="n">
         <v>68</v>
-      </c>
-      <c r="K20" t="n">
-        <v>65</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-20 12:15:05</t>
+          <t>2025-11-21 03:03:53</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 03:03:53</t>
+          <t>2025-11-21 07:04:04</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 07:04:04</t>
+          <t>2025-11-21 07:19:58</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E9" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F9" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G9" t="n">
-        <v>15.23</v>
+        <v>15.56</v>
       </c>
       <c r="H9" t="n">
-        <v>8.19</v>
+        <v>8.33</v>
       </c>
       <c r="I9" t="n">
-        <v>7.04</v>
+        <v>7.22</v>
       </c>
       <c r="J9" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E14" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F14" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G14" t="n">
-        <v>12.22</v>
+        <v>12.84</v>
       </c>
       <c r="H14" t="n">
-        <v>6.39</v>
+        <v>6.68</v>
       </c>
       <c r="I14" t="n">
-        <v>5.83</v>
+        <v>6.16</v>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K14" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F18" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G18" t="n">
-        <v>15.32</v>
+        <v>15.04</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>8.119999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E21" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G21" t="n">
-        <v>14.18</v>
+        <v>13.91</v>
       </c>
       <c r="H21" t="n">
-        <v>6.45</v>
+        <v>6.26</v>
       </c>
       <c r="I21" t="n">
-        <v>7.73</v>
+        <v>7.65</v>
       </c>
       <c r="J21" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F17" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G17" t="n">
-        <v>18.46</v>
+        <v>18.86</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85</v>
+        <v>10.93</v>
       </c>
       <c r="I17" t="n">
-        <v>7.62</v>
+        <v>7.93</v>
       </c>
       <c r="J17" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K17" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="E22" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F22" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="G22" t="n">
-        <v>19.11</v>
+        <v>19.35</v>
       </c>
       <c r="H22" t="n">
-        <v>9.84</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>9.26</v>
+        <v>9.4</v>
       </c>
       <c r="J22" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -5509,7 +5509,7 @@
         <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-21 07:19:58</t>
+          <t>2025-11-22 03:03:39</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-22 03:03:39</t>
+          <t>2025-11-22 07:04:51</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="E2" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F2" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G2" t="n">
-        <v>22.04</v>
+        <v>21.82</v>
       </c>
       <c r="H2" t="n">
-        <v>9.07</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>12.96</v>
+        <v>12.79</v>
       </c>
       <c r="J2" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K2" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="E5" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G5" t="n">
-        <v>16.04</v>
+        <v>16.39</v>
       </c>
       <c r="H5" t="n">
-        <v>8.369999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>7.67</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K5" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="E8" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F8" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G8" t="n">
-        <v>18.08</v>
+        <v>17.92</v>
       </c>
       <c r="H8" t="n">
-        <v>9.130000000000001</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>8.960000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="J8" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E10" t="n">
+        <v>158</v>
+      </c>
+      <c r="F10" t="n">
         <v>156</v>
       </c>
-      <c r="F10" t="n">
-        <v>146</v>
-      </c>
       <c r="G10" t="n">
-        <v>17.76</v>
+        <v>17.44</v>
       </c>
       <c r="H10" t="n">
-        <v>9.18</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>8.59</v>
+        <v>8.67</v>
       </c>
       <c r="J10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E16" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F16" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G16" t="n">
-        <v>18.73</v>
+        <v>18.56</v>
       </c>
       <c r="H16" t="n">
-        <v>9.31</v>
+        <v>9.19</v>
       </c>
       <c r="I16" t="n">
-        <v>9.42</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G17" t="n">
-        <v>16.5</v>
+        <v>16.24</v>
       </c>
       <c r="H17" t="n">
-        <v>6.19</v>
+        <v>5.94</v>
       </c>
       <c r="I17" t="n">
-        <v>10.31</v>
+        <v>10.29</v>
       </c>
       <c r="J17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="E20" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F20" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G20" t="n">
-        <v>16.88</v>
+        <v>16.85</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>7.23</v>
       </c>
       <c r="I20" t="n">
-        <v>9.68</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K20" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E3" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F3" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G3" t="n">
-        <v>14.65</v>
+        <v>14.63</v>
       </c>
       <c r="H3" t="n">
-        <v>7.58</v>
+        <v>7.52</v>
       </c>
       <c r="I3" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K3" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E8" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G8" t="n">
-        <v>15.48</v>
+        <v>15.35</v>
       </c>
       <c r="H8" t="n">
-        <v>5.92</v>
+        <v>5.77</v>
       </c>
       <c r="I8" t="n">
-        <v>9.56</v>
+        <v>9.58</v>
       </c>
       <c r="J8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E9" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F9" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G9" t="n">
-        <v>18.48</v>
+        <v>18.23</v>
       </c>
       <c r="H9" t="n">
-        <v>8.039999999999999</v>
+        <v>7.81</v>
       </c>
       <c r="I9" t="n">
-        <v>10.44</v>
+        <v>10.42</v>
       </c>
       <c r="J9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E14" t="n">
+        <v>218</v>
+      </c>
+      <c r="F14" t="n">
         <v>210</v>
       </c>
-      <c r="F14" t="n">
-        <v>202</v>
-      </c>
       <c r="G14" t="n">
-        <v>16.48</v>
+        <v>16.46</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>8.08</v>
       </c>
       <c r="J14" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K14" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="E26" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F26" t="n">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G26" t="n">
-        <v>19.88</v>
+        <v>20.12</v>
       </c>
       <c r="H26" t="n">
-        <v>8.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="I26" t="n">
-        <v>11.33</v>
+        <v>11.6</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K26" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
@@ -5879,7 +5879,7 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-22 07:04:51</t>
+          <t>2025-11-23 01:57:05</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 01:57:05</t>
+          <t>2025-11-23 03:05:04</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 03:05:04</t>
+          <t>2025-11-23 07:05:06</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 07:05:06</t>
+          <t>2025-11-23 11:07:19</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:07:19</t>
+          <t>2025-11-23 11:31:32</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:31:32</t>
+          <t>2025-11-23 11:37:25</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="E9" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F9" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G9" t="n">
-        <v>15.56</v>
+        <v>15.5</v>
       </c>
       <c r="H9" t="n">
-        <v>8.33</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.22</v>
+        <v>7.39</v>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="W9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E11" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F11" t="n">
         <v>264</v>
       </c>
       <c r="G11" t="n">
-        <v>25.79</v>
+        <v>24.6</v>
       </c>
       <c r="H11" t="n">
-        <v>11.89</v>
+        <v>11.4</v>
       </c>
       <c r="I11" t="n">
-        <v>13.89</v>
+        <v>13.2</v>
       </c>
       <c r="J11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="n">
         <v>87</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E15" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F15" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G15" t="n">
-        <v>17.06</v>
+        <v>17.28</v>
       </c>
       <c r="H15" t="n">
-        <v>8.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>9.06</v>
       </c>
       <c r="J15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -2441,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E17" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G17" t="n">
-        <v>16.24</v>
+        <v>15.78</v>
       </c>
       <c r="H17" t="n">
-        <v>5.94</v>
+        <v>5.72</v>
       </c>
       <c r="I17" t="n">
-        <v>10.29</v>
+        <v>10.06</v>
       </c>
       <c r="J17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2654,34 +2654,34 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="E18" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F18" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G18" t="n">
-        <v>15.04</v>
+        <v>15.26</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="I18" t="n">
-        <v>8.039999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E21" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F21" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G21" t="n">
-        <v>13.91</v>
+        <v>13.67</v>
       </c>
       <c r="H21" t="n">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="I21" t="n">
-        <v>7.65</v>
+        <v>7.58</v>
       </c>
       <c r="J21" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3291,28 +3291,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E25" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F25" t="n">
         <v>233</v>
       </c>
       <c r="G25" t="n">
-        <v>16.63</v>
+        <v>16.11</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>7.79</v>
       </c>
       <c r="I25" t="n">
-        <v>8.630000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="J25" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25" t="n">
         <v>109</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E11" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>14.13</v>
+        <v>13.76</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>6.24</v>
       </c>
       <c r="I11" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="J11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E17" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G17" t="n">
-        <v>18.86</v>
+        <v>18.53</v>
       </c>
       <c r="H17" t="n">
-        <v>10.93</v>
+        <v>10.33</v>
       </c>
       <c r="I17" t="n">
-        <v>7.93</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E19" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F19" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G19" t="n">
-        <v>17.29</v>
+        <v>16.92</v>
       </c>
       <c r="H19" t="n">
-        <v>8.33</v>
+        <v>8.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8.960000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="J19" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5236,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5267,28 +5267,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E20" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" t="n">
         <v>141</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>15.26</v>
       </c>
       <c r="H20" t="n">
-        <v>8.17</v>
+        <v>7.84</v>
       </c>
       <c r="I20" t="n">
-        <v>7.83</v>
+        <v>7.42</v>
       </c>
       <c r="J20" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" t="n">
         <v>68</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E22" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F22" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G22" t="n">
-        <v>19.35</v>
+        <v>19.1</v>
       </c>
       <c r="H22" t="n">
-        <v>9.949999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="I22" t="n">
-        <v>9.4</v>
+        <v>9.52</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -5509,7 +5509,7 @@
         <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-23 11:37:25</t>
+          <t>2025-11-24 03:04:16</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-24 03:04:16</t>
+          <t>2025-11-24 07:04:22</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F2" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G2" t="n">
-        <v>21.82</v>
+        <v>21.48</v>
       </c>
       <c r="H2" t="n">
-        <v>9.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>12.79</v>
+        <v>12.48</v>
       </c>
       <c r="J2" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K2" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="E4" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G4" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="H4" t="n">
-        <v>6.81</v>
+        <v>6.77</v>
       </c>
       <c r="I4" t="n">
-        <v>9.1</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G6" t="n">
-        <v>16.93</v>
+        <v>16.75</v>
       </c>
       <c r="H6" t="n">
-        <v>7.44</v>
+        <v>7.46</v>
       </c>
       <c r="I6" t="n">
-        <v>9.48</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K6" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="E22" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F22" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G22" t="n">
-        <v>21.58</v>
+        <v>21.3</v>
       </c>
       <c r="H22" t="n">
-        <v>9.529999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="I22" t="n">
-        <v>12.05</v>
+        <v>11.95</v>
       </c>
       <c r="J22" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E24" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F24" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G24" t="n">
-        <v>16.54</v>
+        <v>16.38</v>
       </c>
       <c r="H24" t="n">
-        <v>7.46</v>
+        <v>7.41</v>
       </c>
       <c r="I24" t="n">
-        <v>9.07</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K24" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F6" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G6" t="n">
-        <v>17.81</v>
+        <v>17.47</v>
       </c>
       <c r="H6" t="n">
-        <v>8.19</v>
+        <v>8.18</v>
       </c>
       <c r="I6" t="n">
-        <v>9.630000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="E12" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F12" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G12" t="n">
-        <v>17.71</v>
+        <v>17.64</v>
       </c>
       <c r="H12" t="n">
-        <v>8.52</v>
+        <v>8.41</v>
       </c>
       <c r="I12" t="n">
-        <v>9.19</v>
+        <v>9.23</v>
       </c>
       <c r="J12" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K12" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E16" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F16" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G16" t="n">
-        <v>17.64</v>
+        <v>17.58</v>
       </c>
       <c r="H16" t="n">
-        <v>8.32</v>
+        <v>8.23</v>
       </c>
       <c r="I16" t="n">
-        <v>9.32</v>
+        <v>9.35</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E21" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F21" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G21" t="n">
-        <v>19.76</v>
+        <v>19.5</v>
       </c>
       <c r="H21" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K21" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E24" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F24" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>17.79</v>
       </c>
       <c r="H24" t="n">
-        <v>7.18</v>
+        <v>7.14</v>
       </c>
       <c r="I24" t="n">
-        <v>10.82</v>
+        <v>10.66</v>
       </c>
       <c r="J24" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K24" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5722,31 +5722,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E25" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F25" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>18.71</v>
+        <v>17.88</v>
       </c>
       <c r="H25" t="n">
-        <v>10.86</v>
+        <v>10.5</v>
       </c>
       <c r="I25" t="n">
-        <v>7.86</v>
+        <v>7.38</v>
       </c>
       <c r="J25" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-24 07:04:22</t>
+          <t>2025-11-25 03:03:21</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-25 03:03:21</t>
+          <t>2025-11-25 07:09:29</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E8" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F8" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G8" t="n">
-        <v>17.92</v>
+        <v>17.62</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.92</v>
+        <v>8.73</v>
       </c>
       <c r="J8" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="E9" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F9" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G9" t="n">
-        <v>15.5</v>
+        <v>15.38</v>
       </c>
       <c r="H9" t="n">
-        <v>8.109999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7.39</v>
+        <v>7.34</v>
       </c>
       <c r="J9" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K9" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2381,37 +2381,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="E15" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F15" t="n">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G15" t="n">
-        <v>17.28</v>
+        <v>18.32</v>
       </c>
       <c r="H15" t="n">
-        <v>8.220000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="I15" t="n">
-        <v>9.06</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E16" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F16" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G16" t="n">
-        <v>18.56</v>
+        <v>18.25</v>
       </c>
       <c r="H16" t="n">
-        <v>9.19</v>
+        <v>9.07</v>
       </c>
       <c r="I16" t="n">
-        <v>9.369999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -2836,37 +2836,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="E20" t="n">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G20" t="n">
-        <v>16.85</v>
+        <v>17.59</v>
       </c>
       <c r="H20" t="n">
-        <v>7.23</v>
+        <v>7.59</v>
       </c>
       <c r="I20" t="n">
-        <v>9.619999999999999</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E3" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F3" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G3" t="n">
-        <v>14.63</v>
+        <v>14.46</v>
       </c>
       <c r="H3" t="n">
-        <v>7.52</v>
+        <v>7.46</v>
       </c>
       <c r="I3" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K3" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4266,37 +4266,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="E9" t="n">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F9" t="n">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G9" t="n">
-        <v>18.23</v>
+        <v>18.93</v>
       </c>
       <c r="H9" t="n">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42</v>
+        <v>10.78</v>
       </c>
       <c r="J9" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K9" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E18" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F18" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G18" t="n">
-        <v>16.54</v>
+        <v>16.38</v>
       </c>
       <c r="H18" t="n">
-        <v>7.86</v>
+        <v>7.79</v>
       </c>
       <c r="I18" t="n">
-        <v>8.68</v>
+        <v>8.59</v>
       </c>
       <c r="J18" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K18" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E19" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F19" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G19" t="n">
-        <v>16.92</v>
+        <v>16.73</v>
       </c>
       <c r="H19" t="n">
-        <v>8.08</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.84</v>
+        <v>8.73</v>
       </c>
       <c r="J19" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K19" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>
@@ -5813,37 +5813,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="E26" t="n">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F26" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G26" t="n">
-        <v>20.12</v>
+        <v>20.77</v>
       </c>
       <c r="H26" t="n">
-        <v>8.52</v>
+        <v>8.85</v>
       </c>
       <c r="I26" t="n">
-        <v>11.6</v>
+        <v>11.92</v>
       </c>
       <c r="J26" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-25 07:09:29</t>
+          <t>2025-11-26 03:06:02</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-26 03:06:02</t>
+          <t>2025-11-26 07:06:43</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="E2" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F2" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G2" t="n">
-        <v>21.48</v>
+        <v>21.23</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="I2" t="n">
-        <v>12.48</v>
+        <v>12.33</v>
       </c>
       <c r="J2" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K2" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>16</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1289,37 +1289,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F3" t="n">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G3" t="n">
-        <v>17.78</v>
+        <v>17.89</v>
       </c>
       <c r="H3" t="n">
-        <v>8.19</v>
+        <v>8.18</v>
       </c>
       <c r="I3" t="n">
-        <v>9.59</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>14</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E6" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G6" t="n">
-        <v>16.75</v>
+        <v>16.66</v>
       </c>
       <c r="H6" t="n">
-        <v>7.46</v>
+        <v>7.41</v>
       </c>
       <c r="I6" t="n">
-        <v>9.289999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" t="n">
         <v>14</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="E11" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F11" t="n">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G11" t="n">
-        <v>24.6</v>
+        <v>24.57</v>
       </c>
       <c r="H11" t="n">
-        <v>11.4</v>
+        <v>11.14</v>
       </c>
       <c r="I11" t="n">
-        <v>13.2</v>
+        <v>13.43</v>
       </c>
       <c r="J11" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K11" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2290,37 +2290,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="E14" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G14" t="n">
-        <v>12.84</v>
+        <v>13.4</v>
       </c>
       <c r="H14" t="n">
-        <v>6.68</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.16</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3629,37 +3629,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E2" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G2" t="n">
-        <v>18.47</v>
+        <v>18.78</v>
       </c>
       <c r="H2" t="n">
-        <v>8.06</v>
+        <v>8.33</v>
       </c>
       <c r="I2" t="n">
-        <v>10.41</v>
+        <v>10.44</v>
       </c>
       <c r="J2" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E11" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F11" t="n">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G11" t="n">
-        <v>13.76</v>
+        <v>14.33</v>
       </c>
       <c r="H11" t="n">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="I11" t="n">
-        <v>7.53</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F12" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G12" t="n">
-        <v>17.64</v>
+        <v>17.48</v>
       </c>
       <c r="H12" t="n">
-        <v>8.41</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>9.23</v>
+        <v>9.17</v>
       </c>
       <c r="J12" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K12" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E18" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F18" t="n">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G18" t="n">
-        <v>16.38</v>
+        <v>16.63</v>
       </c>
       <c r="H18" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="I18" t="n">
-        <v>8.59</v>
+        <v>8.9</v>
       </c>
       <c r="J18" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5540,37 +5540,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E23" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F23" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G23" t="n">
-        <v>14.67</v>
+        <v>15.25</v>
       </c>
       <c r="H23" t="n">
-        <v>7.13</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>7.53</v>
+        <v>7.75</v>
       </c>
       <c r="J23" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K23" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5600,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>6</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-26 07:06:43</t>
+          <t>2025-11-27 03:06:04</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-27 03:06:04</t>
+          <t>2025-11-27 07:05:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="E3" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F3" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G3" t="n">
-        <v>17.89</v>
+        <v>17.9</v>
       </c>
       <c r="H3" t="n">
-        <v>8.18</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>9.710000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K3" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G5" t="n">
-        <v>16.39</v>
+        <v>16.24</v>
       </c>
       <c r="H5" t="n">
-        <v>8.359999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>8.039999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="J5" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K5" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G7" t="n">
-        <v>13.24</v>
+        <v>13.28</v>
       </c>
       <c r="H7" t="n">
-        <v>5.88</v>
+        <v>5.78</v>
       </c>
       <c r="I7" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
+        <v>52</v>
+      </c>
+      <c r="K7" t="n">
         <v>50</v>
-      </c>
-      <c r="K7" t="n">
-        <v>45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E10" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F10" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" t="n">
-        <v>17.44</v>
+        <v>17.16</v>
       </c>
       <c r="H10" t="n">
-        <v>8.779999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>8.67</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E20" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F20" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G20" t="n">
-        <v>17.59</v>
+        <v>17.39</v>
       </c>
       <c r="H20" t="n">
-        <v>7.59</v>
+        <v>7.61</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="E21" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G21" t="n">
-        <v>13.67</v>
+        <v>13.84</v>
       </c>
       <c r="H21" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.58</v>
+        <v>7.84</v>
       </c>
       <c r="J21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K21" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E25" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F25" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G25" t="n">
-        <v>16.11</v>
+        <v>15.97</v>
       </c>
       <c r="H25" t="n">
         <v>7.79</v>
       </c>
       <c r="I25" t="n">
-        <v>8.32</v>
+        <v>8.17</v>
       </c>
       <c r="J25" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K25" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>14</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>14.43</v>
+        <v>14.27</v>
       </c>
       <c r="H5" t="n">
-        <v>7.71</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.71</v>
+        <v>6.67</v>
       </c>
       <c r="J5" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F11" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G11" t="n">
-        <v>14.33</v>
+        <v>14.21</v>
       </c>
       <c r="H11" t="n">
-        <v>6.22</v>
+        <v>6.21</v>
       </c>
       <c r="I11" t="n">
-        <v>8.109999999999999</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K11" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E16" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G16" t="n">
-        <v>17.58</v>
+        <v>17.44</v>
       </c>
       <c r="H16" t="n">
-        <v>8.23</v>
+        <v>8.07</v>
       </c>
       <c r="I16" t="n">
-        <v>9.35</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K16" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E19" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G19" t="n">
-        <v>16.73</v>
+        <v>16.56</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.73</v>
+        <v>8.56</v>
       </c>
       <c r="J19" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K19" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
         <v>14</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="E21" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F21" t="n">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G21" t="n">
-        <v>19.5</v>
+        <v>19.45</v>
       </c>
       <c r="H21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="I21" t="n">
-        <v>11.3</v>
+        <v>11.39</v>
       </c>
       <c r="J21" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K21" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E24" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F24" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G24" t="n">
-        <v>17.79</v>
+        <v>17.8</v>
       </c>
       <c r="H24" t="n">
-        <v>7.14</v>
+        <v>7.03</v>
       </c>
       <c r="I24" t="n">
-        <v>10.66</v>
+        <v>10.77</v>
       </c>
       <c r="J24" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K24" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-27 07:05:38</t>
+          <t>2025-11-28 03:05:41</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-28 03:05:41</t>
+          <t>2025-11-28 07:06:03</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="E2" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F2" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G2" t="n">
-        <v>21.23</v>
+        <v>21.13</v>
       </c>
       <c r="H2" t="n">
-        <v>8.9</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>12.33</v>
+        <v>12.26</v>
       </c>
       <c r="J2" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="E12" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F12" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>17.06</v>
+        <v>17.32</v>
       </c>
       <c r="H12" t="n">
-        <v>7.39</v>
+        <v>7.42</v>
       </c>
       <c r="I12" t="n">
-        <v>9.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K12" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2290,37 +2290,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E14" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F14" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G14" t="n">
-        <v>13.4</v>
+        <v>13.71</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.19</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.52</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
         <v>14</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="E16" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F16" t="n">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G16" t="n">
-        <v>18.25</v>
+        <v>18.31</v>
       </c>
       <c r="H16" t="n">
-        <v>9.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>9.18</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K16" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2532,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
         <v>9</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E19" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F19" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="G19" t="n">
-        <v>17.55</v>
+        <v>17.74</v>
       </c>
       <c r="H19" t="n">
-        <v>8.82</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>8.73</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K19" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="E22" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F22" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G22" t="n">
-        <v>21.3</v>
+        <v>21.14</v>
       </c>
       <c r="H22" t="n">
-        <v>9.35</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>11.95</v>
+        <v>11.86</v>
       </c>
       <c r="J22" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3200,37 +3200,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="E24" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F24" t="n">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G24" t="n">
-        <v>16.38</v>
+        <v>16.5</v>
       </c>
       <c r="H24" t="n">
-        <v>7.41</v>
+        <v>7.53</v>
       </c>
       <c r="I24" t="n">
         <v>8.970000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K24" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
         <v>12</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F2" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="G2" t="n">
-        <v>18.78</v>
+        <v>18.95</v>
       </c>
       <c r="H2" t="n">
-        <v>8.33</v>
+        <v>8.32</v>
       </c>
       <c r="I2" t="n">
-        <v>10.44</v>
+        <v>10.63</v>
       </c>
       <c r="J2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F8" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G8" t="n">
-        <v>15.35</v>
+        <v>15.59</v>
       </c>
       <c r="H8" t="n">
-        <v>5.77</v>
+        <v>5.85</v>
       </c>
       <c r="I8" t="n">
-        <v>9.58</v>
+        <v>9.74</v>
       </c>
       <c r="J8" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K8" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4539,37 +4539,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="E12" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F12" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G12" t="n">
-        <v>17.48</v>
+        <v>17.58</v>
       </c>
       <c r="H12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="I12" t="n">
         <v>9.17</v>
       </c>
       <c r="J12" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="E15" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F15" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G15" t="n">
-        <v>18.91</v>
+        <v>18.96</v>
       </c>
       <c r="H15" t="n">
-        <v>9.869999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>9.039999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="J15" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K15" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4872,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -4903,25 +4903,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E16" t="n">
         <v>218</v>
       </c>
       <c r="F16" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G16" t="n">
-        <v>17.44</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>8.07</v>
+        <v>7.79</v>
       </c>
       <c r="I16" t="n">
-        <v>9.369999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="J16" t="n">
         <v>99</v>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="E22" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G22" t="n">
-        <v>19.1</v>
+        <v>19.05</v>
       </c>
       <c r="H22" t="n">
-        <v>9.57</v>
+        <v>9.5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K22" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5722,37 +5722,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G25" t="n">
-        <v>17.88</v>
+        <v>18.11</v>
       </c>
       <c r="H25" t="n">
-        <v>10.5</v>
+        <v>10.56</v>
       </c>
       <c r="I25" t="n">
-        <v>7.38</v>
+        <v>7.56</v>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>2</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="E26" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F26" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G26" t="n">
-        <v>20.77</v>
+        <v>20.67</v>
       </c>
       <c r="H26" t="n">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
       <c r="I26" t="n">
-        <v>11.92</v>
+        <v>11.85</v>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K26" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-28 07:06:03</t>
+          <t>2025-11-29 03:04:37</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-29 03:04:37</t>
+          <t>2025-11-29 07:04:49</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E6" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F6" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G6" t="n">
-        <v>16.66</v>
+        <v>16.5</v>
       </c>
       <c r="H6" t="n">
-        <v>7.41</v>
+        <v>7.37</v>
       </c>
       <c r="I6" t="n">
-        <v>9.24</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K6" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="W6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1653,37 +1653,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G7" t="n">
-        <v>13.28</v>
+        <v>13.53</v>
       </c>
       <c r="H7" t="n">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>7.68</v>
       </c>
       <c r="J7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E15" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F15" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G15" t="n">
-        <v>18.32</v>
+        <v>17.9</v>
       </c>
       <c r="H15" t="n">
-        <v>8.68</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9.630000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K15" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E17" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G17" t="n">
-        <v>15.78</v>
+        <v>15.58</v>
       </c>
       <c r="H17" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="I17" t="n">
-        <v>10.06</v>
+        <v>9.84</v>
       </c>
       <c r="J17" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -2836,37 +2836,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="E20" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F20" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G20" t="n">
-        <v>17.39</v>
+        <v>17.41</v>
       </c>
       <c r="H20" t="n">
-        <v>7.61</v>
+        <v>7.59</v>
       </c>
       <c r="I20" t="n">
-        <v>9.789999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="J20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E23" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F23" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G23" t="n">
-        <v>12.82</v>
+        <v>12.67</v>
       </c>
       <c r="H23" t="n">
-        <v>4.76</v>
+        <v>4.83</v>
       </c>
       <c r="I23" t="n">
-        <v>8.06</v>
+        <v>7.83</v>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E8" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F8" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G8" t="n">
-        <v>15.59</v>
+        <v>15.39</v>
       </c>
       <c r="H8" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="I8" t="n">
-        <v>9.74</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E11" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G11" t="n">
-        <v>14.21</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4721,37 +4721,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E14" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F14" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G14" t="n">
-        <v>16.46</v>
+        <v>16.52</v>
       </c>
       <c r="H14" t="n">
-        <v>8.380000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="I14" t="n">
-        <v>8.08</v>
+        <v>8.19</v>
       </c>
       <c r="J14" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5085,37 +5085,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="E18" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F18" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G18" t="n">
-        <v>16.63</v>
+        <v>16.68</v>
       </c>
       <c r="H18" t="n">
-        <v>7.73</v>
+        <v>7.71</v>
       </c>
       <c r="I18" t="n">
-        <v>8.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W18" t="n">
         <v>22</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E24" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F24" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G24" t="n">
-        <v>17.8</v>
+        <v>17.61</v>
       </c>
       <c r="H24" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>10.77</v>
+        <v>10.61</v>
       </c>
       <c r="J24" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K24" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5691,7 +5691,7 @@
         <v>14</v>
       </c>
       <c r="W24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-29 07:04:49</t>
+          <t>2025-11-30 03:04:59</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-30 03:04:59</t>
+          <t>2025-11-30 07:04:32</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="E2" t="n">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F2" t="n">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="G2" t="n">
-        <v>21.13</v>
+        <v>21.53</v>
       </c>
       <c r="H2" t="n">
-        <v>8.869999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26</v>
+        <v>12.44</v>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K2" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
         <v>16</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="E8" t="n">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F8" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G8" t="n">
-        <v>17.62</v>
+        <v>18.37</v>
       </c>
       <c r="H8" t="n">
-        <v>8.880000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="I8" t="n">
-        <v>8.73</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K8" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="E9" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F9" t="n">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="G9" t="n">
-        <v>15.38</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>7.34</v>
+        <v>7.7</v>
       </c>
       <c r="J9" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W9" t="n">
         <v>30</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="E11" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F11" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G11" t="n">
-        <v>24.57</v>
+        <v>24.18</v>
       </c>
       <c r="H11" t="n">
-        <v>11.14</v>
+        <v>11.09</v>
       </c>
       <c r="I11" t="n">
-        <v>13.43</v>
+        <v>13.09</v>
       </c>
       <c r="J11" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K11" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="E18" t="n">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F18" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G18" t="n">
-        <v>15.26</v>
+        <v>16.07</v>
       </c>
       <c r="H18" t="n">
-        <v>7.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K18" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F21" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G21" t="n">
-        <v>13.84</v>
+        <v>13.92</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="I21" t="n">
-        <v>7.84</v>
+        <v>7.77</v>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="E3" t="n">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F3" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G3" t="n">
-        <v>14.46</v>
+        <v>15.28</v>
       </c>
       <c r="H3" t="n">
-        <v>7.46</v>
+        <v>8.31</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K3" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="E12" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F12" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G12" t="n">
-        <v>17.58</v>
+        <v>17.52</v>
       </c>
       <c r="H12" t="n">
-        <v>8.42</v>
+        <v>8.48</v>
       </c>
       <c r="I12" t="n">
-        <v>9.17</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="E15" t="n">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F15" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G15" t="n">
-        <v>18.96</v>
+        <v>19.56</v>
       </c>
       <c r="H15" t="n">
-        <v>9.789999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="I15" t="n">
-        <v>9.17</v>
+        <v>9.52</v>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K15" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
         <v>14</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-11-30 07:04:32</t>
+          <t>2025-12-01 03:05:18</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-01 03:05:18</t>
+          <t>2025-12-01 07:04:51</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1289,28 +1289,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E3" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F3" t="n">
         <v>286</v>
       </c>
       <c r="G3" t="n">
-        <v>17.9</v>
+        <v>17.37</v>
       </c>
       <c r="H3" t="n">
-        <v>8.029999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="I3" t="n">
-        <v>9.859999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K3" t="n">
         <v>118</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G5" t="n">
-        <v>16.24</v>
+        <v>16.1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.279999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>7.97</v>
       </c>
       <c r="J5" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K5" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E10" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G10" t="n">
-        <v>17.16</v>
+        <v>16.9</v>
       </c>
       <c r="H10" t="n">
-        <v>8.630000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8.529999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2108,28 +2108,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E12" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
         <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>17.32</v>
+        <v>16.55</v>
       </c>
       <c r="H12" t="n">
-        <v>7.42</v>
+        <v>7.15</v>
       </c>
       <c r="I12" t="n">
-        <v>9.890000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" t="n">
         <v>69</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F13" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G13" t="n">
-        <v>15.5</v>
+        <v>15.18</v>
       </c>
       <c r="H13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="J13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F20" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G20" t="n">
-        <v>17.41</v>
+        <v>17.23</v>
       </c>
       <c r="H20" t="n">
-        <v>7.59</v>
+        <v>7.53</v>
       </c>
       <c r="I20" t="n">
-        <v>9.83</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K20" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3109,31 +3109,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E23" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F23" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G23" t="n">
-        <v>12.67</v>
+        <v>12.63</v>
       </c>
       <c r="H23" t="n">
-        <v>4.83</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>7.83</v>
+        <v>7.63</v>
       </c>
       <c r="J23" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K23" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E25" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F25" t="n">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G25" t="n">
-        <v>15.97</v>
+        <v>15.83</v>
       </c>
       <c r="H25" t="n">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="I25" t="n">
         <v>8.17</v>
       </c>
       <c r="J25" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G4" t="n">
-        <v>15.08</v>
+        <v>14.86</v>
       </c>
       <c r="H4" t="n">
-        <v>6.77</v>
+        <v>6.71</v>
       </c>
       <c r="I4" t="n">
-        <v>8.31</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3902,31 +3902,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G5" t="n">
-        <v>14.27</v>
+        <v>14.13</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>7.38</v>
       </c>
       <c r="I5" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="J5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E6" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G6" t="n">
-        <v>17.47</v>
+        <v>17.17</v>
       </c>
       <c r="H6" t="n">
-        <v>8.18</v>
+        <v>8.06</v>
       </c>
       <c r="I6" t="n">
-        <v>9.289999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4721,28 +4721,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E14" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F14" t="n">
         <v>221</v>
       </c>
       <c r="G14" t="n">
-        <v>16.52</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>8.33</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>8.19</v>
+        <v>7.89</v>
       </c>
       <c r="J14" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14" t="n">
         <v>103</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -4903,28 +4903,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E16" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F16" t="n">
         <v>258</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>16.48</v>
       </c>
       <c r="H16" t="n">
-        <v>7.79</v>
+        <v>7.59</v>
       </c>
       <c r="I16" t="n">
-        <v>9.210000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J16" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
         <v>109</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="E18" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F18" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G18" t="n">
-        <v>16.68</v>
+        <v>16.53</v>
       </c>
       <c r="H18" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="I18" t="n">
-        <v>8.970000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="J18" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K18" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E19" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F19" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G19" t="n">
-        <v>16.56</v>
+        <v>16.39</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7.86</v>
       </c>
       <c r="I19" t="n">
-        <v>8.56</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-01 07:04:51</t>
+          <t>2025-12-02 03:04:09</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-02 03:04:09</t>
+          <t>2025-12-02 07:04:25</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E8" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F8" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G8" t="n">
-        <v>18.37</v>
+        <v>18.21</v>
       </c>
       <c r="H8" t="n">
-        <v>9.74</v>
+        <v>9.68</v>
       </c>
       <c r="I8" t="n">
-        <v>8.630000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K8" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E9" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>15.74</v>
       </c>
       <c r="H9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="I9" t="n">
-        <v>7.7</v>
+        <v>7.52</v>
       </c>
       <c r="J9" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K9" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W9" t="n">
         <v>30</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="E11" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F11" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G11" t="n">
-        <v>24.18</v>
+        <v>23.83</v>
       </c>
       <c r="H11" t="n">
-        <v>11.09</v>
+        <v>10.96</v>
       </c>
       <c r="I11" t="n">
-        <v>13.09</v>
+        <v>12.87</v>
       </c>
       <c r="J11" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K11" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E18" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F18" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G18" t="n">
-        <v>16.07</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>8.039999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.039999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="J18" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K18" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W18" t="n">
         <v>10</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E19" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F19" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G19" t="n">
-        <v>17.74</v>
+        <v>17.33</v>
       </c>
       <c r="H19" t="n">
-        <v>8.779999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="I19" t="n">
-        <v>8.960000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="J19" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K19" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F21" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G21" t="n">
-        <v>13.92</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>6.15</v>
+        <v>6.22</v>
       </c>
       <c r="I21" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K21" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="E3" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F3" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G3" t="n">
-        <v>15.28</v>
+        <v>15.23</v>
       </c>
       <c r="H3" t="n">
-        <v>8.31</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>6.97</v>
+        <v>6.93</v>
       </c>
       <c r="J3" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K3" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E12" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G12" t="n">
-        <v>17.52</v>
+        <v>17.46</v>
       </c>
       <c r="H12" t="n">
-        <v>8.48</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>9.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -4593,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="E26" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F26" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G26" t="n">
-        <v>20.67</v>
+        <v>20.21</v>
       </c>
       <c r="H26" t="n">
-        <v>8.81</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>11.85</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-02 07:04:25</t>
+          <t>2025-12-03 10:09:45</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,46 +1198,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="E2" t="n">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="F2" t="n">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="G2" t="n">
-        <v>21.53</v>
+        <v>23.24</v>
       </c>
       <c r="H2" t="n">
-        <v>9.09</v>
+        <v>10.27</v>
       </c>
       <c r="I2" t="n">
-        <v>12.44</v>
+        <v>12.97</v>
       </c>
       <c r="J2" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K2" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E4" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G4" t="n">
-        <v>15.91</v>
+        <v>15.39</v>
       </c>
       <c r="H4" t="n">
-        <v>6.77</v>
+        <v>6.57</v>
       </c>
       <c r="I4" t="n">
-        <v>9.140000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E9" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G9" t="n">
-        <v>15.74</v>
+        <v>15.44</v>
       </c>
       <c r="H9" t="n">
-        <v>8.23</v>
+        <v>8.09</v>
       </c>
       <c r="I9" t="n">
-        <v>7.52</v>
+        <v>7.34</v>
       </c>
       <c r="J9" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E12" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F12" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G12" t="n">
-        <v>16.55</v>
+        <v>16.62</v>
       </c>
       <c r="H12" t="n">
-        <v>7.15</v>
+        <v>7.19</v>
       </c>
       <c r="I12" t="n">
-        <v>9.4</v>
+        <v>9.43</v>
       </c>
       <c r="J12" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K12" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E15" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F15" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G15" t="n">
         <v>17.9</v>
       </c>
       <c r="H15" t="n">
-        <v>8.550000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="I15" t="n">
-        <v>9.35</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K15" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E17" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" t="n">
-        <v>15.58</v>
+        <v>15.1</v>
       </c>
       <c r="H17" t="n">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="I17" t="n">
-        <v>9.84</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E20" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F20" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G20" t="n">
-        <v>17.23</v>
+        <v>16.87</v>
       </c>
       <c r="H20" t="n">
-        <v>7.53</v>
+        <v>7.42</v>
       </c>
       <c r="I20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3200,46 +3200,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="E24" t="n">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F24" t="n">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G24" t="n">
-        <v>16.5</v>
+        <v>18.48</v>
       </c>
       <c r="H24" t="n">
-        <v>7.53</v>
+        <v>8.84</v>
       </c>
       <c r="I24" t="n">
-        <v>8.970000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="J24" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K24" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X24" t="n">
         <v>2</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E25" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F25" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G25" t="n">
-        <v>15.83</v>
+        <v>15.45</v>
       </c>
       <c r="H25" t="n">
-        <v>7.67</v>
+        <v>7.48</v>
       </c>
       <c r="I25" t="n">
-        <v>8.17</v>
+        <v>7.97</v>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E26" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F26" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G26" t="n">
-        <v>21.82</v>
+        <v>21.33</v>
       </c>
       <c r="H26" t="n">
-        <v>9.640000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I26" t="n">
-        <v>12.18</v>
+        <v>11.83</v>
       </c>
       <c r="J26" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K26" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G4" t="n">
-        <v>14.86</v>
+        <v>14.93</v>
       </c>
       <c r="H4" t="n">
-        <v>6.71</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4084,46 +4084,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F7" t="n">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G7" t="n">
-        <v>15.94</v>
+        <v>19.39</v>
       </c>
       <c r="H7" t="n">
-        <v>5.65</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>10.29</v>
+        <v>11.39</v>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -4141,11 +4141,11 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
+        <v>12</v>
+      </c>
+      <c r="W7" t="n">
         <v>10</v>
       </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E14" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F14" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>15.66</v>
       </c>
       <c r="H14" t="n">
-        <v>8.109999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="I14" t="n">
-        <v>7.89</v>
+        <v>7.69</v>
       </c>
       <c r="J14" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K14" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="E15" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G15" t="n">
-        <v>19.56</v>
+        <v>19.42</v>
       </c>
       <c r="H15" t="n">
-        <v>10.04</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9.52</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="J15" t="n">
+        <v>107</v>
+      </c>
+      <c r="K15" t="n">
         <v>103</v>
-      </c>
-      <c r="K15" t="n">
-        <v>99</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E16" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F16" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" t="n">
-        <v>16.48</v>
+        <v>16.13</v>
       </c>
       <c r="H16" t="n">
-        <v>7.59</v>
+        <v>7.47</v>
       </c>
       <c r="I16" t="n">
-        <v>8.9</v>
+        <v>8.67</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F19" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G19" t="n">
-        <v>16.39</v>
+        <v>16.03</v>
       </c>
       <c r="H19" t="n">
-        <v>7.86</v>
+        <v>7.72</v>
       </c>
       <c r="I19" t="n">
-        <v>8.539999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="J19" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E21" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F21" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G21" t="n">
-        <v>19.45</v>
+        <v>18.97</v>
       </c>
       <c r="H21" t="n">
-        <v>8.06</v>
+        <v>7.88</v>
       </c>
       <c r="I21" t="n">
-        <v>11.39</v>
+        <v>11.09</v>
       </c>
       <c r="J21" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5540,31 +5540,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G23" t="n">
-        <v>15.25</v>
+        <v>15.41</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
       <c r="I23" t="n">
-        <v>7.75</v>
+        <v>7.88</v>
       </c>
       <c r="J23" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K23" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E24" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F24" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G24" t="n">
-        <v>17.61</v>
+        <v>17.19</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6.84</v>
       </c>
       <c r="I24" t="n">
-        <v>10.61</v>
+        <v>10.34</v>
       </c>
       <c r="J24" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E26" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G26" t="n">
-        <v>20.21</v>
+        <v>19.72</v>
       </c>
       <c r="H26" t="n">
-        <v>8.710000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5</v>
+        <v>11.17</v>
       </c>
       <c r="J26" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K26" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-03 10:09:45</t>
+          <t>2025-12-04 11:17:07</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="E8" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F8" t="n">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G8" t="n">
-        <v>18.21</v>
+        <v>18.14</v>
       </c>
       <c r="H8" t="n">
-        <v>9.68</v>
+        <v>9.48</v>
       </c>
       <c r="I8" t="n">
-        <v>8.539999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="J8" t="n">
+        <v>120</v>
+      </c>
+      <c r="K8" t="n">
         <v>118</v>
-      </c>
-      <c r="K8" t="n">
-        <v>112</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="E11" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F11" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G11" t="n">
-        <v>23.83</v>
+        <v>23.42</v>
       </c>
       <c r="H11" t="n">
-        <v>10.96</v>
+        <v>10.83</v>
       </c>
       <c r="I11" t="n">
-        <v>12.87</v>
+        <v>12.58</v>
       </c>
       <c r="J11" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K11" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2077,13 +2077,13 @@
         <v>16</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E18" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F18" t="n">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G18" t="n">
         <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>8.029999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7.97</v>
+        <v>8.1</v>
       </c>
       <c r="J18" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E21" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F21" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>6.22</v>
+        <v>6.29</v>
       </c>
       <c r="I21" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="J21" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K21" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2987,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F26" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G26" t="n">
-        <v>21.33</v>
+        <v>20.31</v>
       </c>
       <c r="H26" t="n">
-        <v>9.5</v>
+        <v>9.08</v>
       </c>
       <c r="I26" t="n">
-        <v>11.83</v>
+        <v>11.23</v>
       </c>
       <c r="J26" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="E3" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F3" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G3" t="n">
-        <v>15.23</v>
+        <v>15.26</v>
       </c>
       <c r="H3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="I3" t="n">
-        <v>6.93</v>
+        <v>7.1</v>
       </c>
       <c r="J3" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K3" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F15" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G15" t="n">
-        <v>19.42</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>9.960000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="I15" t="n">
-        <v>9.460000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="J15" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K15" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E17" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F17" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>18.53</v>
+        <v>17.88</v>
       </c>
       <c r="H17" t="n">
-        <v>10.33</v>
+        <v>9.94</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-04 11:17:07</t>
+          <t>2025-12-04 23:28:42</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-04 23:28:42</t>
+          <t>2025-12-05 03:07:02</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-05 03:07:02</t>
+          <t>2025-12-05 07:07:36</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="E2" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F2" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G2" t="n">
-        <v>23.24</v>
+        <v>22.97</v>
       </c>
       <c r="H2" t="n">
-        <v>10.27</v>
+        <v>10.15</v>
       </c>
       <c r="I2" t="n">
-        <v>12.97</v>
+        <v>12.82</v>
       </c>
       <c r="J2" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K2" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>14</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E3" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F3" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G3" t="n">
-        <v>17.37</v>
+        <v>17.06</v>
       </c>
       <c r="H3" t="n">
-        <v>7.83</v>
+        <v>7.77</v>
       </c>
       <c r="I3" t="n">
-        <v>9.529999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K3" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F4" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G4" t="n">
-        <v>15.39</v>
+        <v>15.83</v>
       </c>
       <c r="H4" t="n">
-        <v>6.57</v>
+        <v>6.88</v>
       </c>
       <c r="I4" t="n">
-        <v>8.83</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E5" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F5" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G5" t="n">
-        <v>16.1</v>
+        <v>16.03</v>
       </c>
       <c r="H5" t="n">
-        <v>8.130000000000001</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.97</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J5" t="n">
+        <v>119</v>
+      </c>
+      <c r="K5" t="n">
         <v>117</v>
-      </c>
-      <c r="K5" t="n">
-        <v>112</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E6" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F6" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G6" t="n">
-        <v>16.5</v>
+        <v>16.42</v>
       </c>
       <c r="H6" t="n">
-        <v>7.37</v>
+        <v>7.32</v>
       </c>
       <c r="I6" t="n">
-        <v>9.130000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K6" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>8</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E7" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F7" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G7" t="n">
-        <v>13.53</v>
+        <v>14.15</v>
       </c>
       <c r="H7" t="n">
-        <v>5.84</v>
+        <v>6.25</v>
       </c>
       <c r="I7" t="n">
-        <v>7.68</v>
+        <v>7.9</v>
       </c>
       <c r="J7" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E10" t="n">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F10" t="n">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G10" t="n">
-        <v>16.9</v>
+        <v>17.43</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.76</v>
       </c>
       <c r="I10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K10" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E13" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F13" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G13" t="n">
-        <v>15.18</v>
+        <v>15.58</v>
       </c>
       <c r="H13" t="n">
-        <v>8.550000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="I13" t="n">
-        <v>6.64</v>
+        <v>6.92</v>
       </c>
       <c r="J13" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E16" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F16" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G16" t="n">
-        <v>18.31</v>
+        <v>18.1</v>
       </c>
       <c r="H16" t="n">
-        <v>9.029999999999999</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>9.279999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J16" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K16" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2745,31 +2745,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E19" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F19" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G19" t="n">
-        <v>17.33</v>
+        <v>17.2</v>
       </c>
       <c r="H19" t="n">
-        <v>8.67</v>
+        <v>8.48</v>
       </c>
       <c r="I19" t="n">
-        <v>8.67</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E24" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F24" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G24" t="n">
-        <v>18.48</v>
+        <v>18.28</v>
       </c>
       <c r="H24" t="n">
-        <v>8.84</v>
+        <v>8.81</v>
       </c>
       <c r="I24" t="n">
-        <v>9.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K24" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L24" t="n">
         <v>6</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="E25" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F25" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G25" t="n">
-        <v>15.45</v>
+        <v>15.59</v>
       </c>
       <c r="H25" t="n">
-        <v>7.48</v>
+        <v>7.56</v>
       </c>
       <c r="I25" t="n">
-        <v>7.97</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K25" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W25" t="n">
         <v>14</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="E2" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F2" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G2" t="n">
-        <v>18.95</v>
+        <v>19.3</v>
       </c>
       <c r="H2" t="n">
-        <v>8.32</v>
+        <v>8.6</v>
       </c>
       <c r="I2" t="n">
-        <v>10.63</v>
+        <v>10.7</v>
       </c>
       <c r="J2" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F6" t="n">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G6" t="n">
-        <v>17.17</v>
+        <v>17.74</v>
       </c>
       <c r="H6" t="n">
-        <v>8.06</v>
+        <v>8.26</v>
       </c>
       <c r="I6" t="n">
-        <v>9.109999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E7" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G7" t="n">
-        <v>19.39</v>
+        <v>19.11</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7.89</v>
       </c>
       <c r="I7" t="n">
-        <v>11.39</v>
+        <v>11.21</v>
       </c>
       <c r="J7" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K7" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>12</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E9" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F9" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G9" t="n">
-        <v>18.93</v>
+        <v>18.75</v>
       </c>
       <c r="H9" t="n">
-        <v>8.15</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>10.78</v>
+        <v>10.75</v>
       </c>
       <c r="J9" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K9" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E11" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F11" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>13.71</v>
       </c>
       <c r="H11" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="I11" t="n">
-        <v>7.8</v>
+        <v>7.52</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F12" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G12" t="n">
-        <v>17.46</v>
+        <v>17.33</v>
       </c>
       <c r="H12" t="n">
-        <v>8.460000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="E14" t="n">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G14" t="n">
-        <v>15.66</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>7.97</v>
+        <v>8.17</v>
       </c>
       <c r="I14" t="n">
-        <v>7.69</v>
+        <v>7.83</v>
       </c>
       <c r="J14" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="E18" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G18" t="n">
-        <v>16.53</v>
+        <v>16.88</v>
       </c>
       <c r="H18" t="n">
-        <v>7.72</v>
+        <v>7.85</v>
       </c>
       <c r="I18" t="n">
-        <v>8.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K18" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5358,31 +5358,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="E21" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F21" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G21" t="n">
-        <v>18.97</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>7.88</v>
+        <v>7.94</v>
       </c>
       <c r="I21" t="n">
-        <v>11.09</v>
+        <v>11.06</v>
       </c>
       <c r="J21" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K21" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W21" t="n">
         <v>10</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E22" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F22" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G22" t="n">
-        <v>19.05</v>
+        <v>18.74</v>
       </c>
       <c r="H22" t="n">
-        <v>9.5</v>
+        <v>9.43</v>
       </c>
       <c r="I22" t="n">
-        <v>9.550000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K22" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="E24" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F24" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G24" t="n">
-        <v>17.19</v>
+        <v>17.27</v>
       </c>
       <c r="H24" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
       <c r="I24" t="n">
-        <v>10.34</v>
+        <v>10.33</v>
       </c>
       <c r="J24" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K24" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W24" t="n">
         <v>20</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5722,31 +5722,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E25" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F25" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25" t="n">
-        <v>18.11</v>
+        <v>17.1</v>
       </c>
       <c r="H25" t="n">
-        <v>10.56</v>
+        <v>10.1</v>
       </c>
       <c r="I25" t="n">
-        <v>7.56</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-05 07:07:36</t>
+          <t>2025-12-06 03:06:17</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-06 03:06:17</t>
+          <t>2025-12-06 07:04:30</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1744,40 +1744,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="E8" t="n">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="F8" t="n">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="G8" t="n">
-        <v>18.14</v>
+        <v>19.57</v>
       </c>
       <c r="H8" t="n">
-        <v>9.48</v>
+        <v>9.93</v>
       </c>
       <c r="I8" t="n">
-        <v>8.66</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K8" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>4</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F11" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="G11" t="n">
-        <v>23.42</v>
+        <v>23.28</v>
       </c>
       <c r="H11" t="n">
-        <v>10.83</v>
+        <v>10.8</v>
       </c>
       <c r="I11" t="n">
-        <v>12.58</v>
+        <v>12.48</v>
       </c>
       <c r="J11" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2654,40 +2654,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="E18" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="F18" t="n">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>17.45</v>
       </c>
       <c r="H18" t="n">
-        <v>7.9</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>8.1</v>
+        <v>9.06</v>
       </c>
       <c r="J18" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>10</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="E21" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F21" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>14.21</v>
       </c>
       <c r="H21" t="n">
-        <v>6.29</v>
+        <v>6.41</v>
       </c>
       <c r="I21" t="n">
-        <v>7.71</v>
+        <v>7.79</v>
       </c>
       <c r="J21" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3720,40 +3720,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="E3" t="n">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F3" t="n">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="G3" t="n">
-        <v>15.26</v>
+        <v>16.69</v>
       </c>
       <c r="H3" t="n">
-        <v>8.16</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>7.1</v>
+        <v>8.06</v>
       </c>
       <c r="J3" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K3" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3777,13 +3777,13 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
         <v>2</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-06 07:04:30</t>
+          <t>2025-12-07 03:07:01</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 03:07:01</t>
+          <t>2025-12-07 07:07:27</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="E2" t="n">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F2" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G2" t="n">
-        <v>22.97</v>
+        <v>22.77</v>
       </c>
       <c r="H2" t="n">
-        <v>10.15</v>
+        <v>10.09</v>
       </c>
       <c r="I2" t="n">
-        <v>12.82</v>
+        <v>12.69</v>
       </c>
       <c r="J2" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K2" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="E3" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F3" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G3" t="n">
-        <v>17.06</v>
+        <v>17.03</v>
       </c>
       <c r="H3" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="I3" t="n">
-        <v>9.289999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="J3" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K3" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1380,37 +1380,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="E4" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F4" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G4" t="n">
-        <v>15.83</v>
+        <v>16.04</v>
       </c>
       <c r="H4" t="n">
-        <v>6.88</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E5" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F5" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G5" t="n">
-        <v>16.03</v>
+        <v>15.72</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7.88</v>
       </c>
       <c r="I5" t="n">
-        <v>8.029999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="J5" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K5" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1562,37 +1562,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="E6" t="n">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G6" t="n">
-        <v>16.42</v>
+        <v>17.09</v>
       </c>
       <c r="H6" t="n">
-        <v>7.32</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.1</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
         <v>121</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F7" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" t="n">
-        <v>14.15</v>
+        <v>13.76</v>
       </c>
       <c r="H7" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="I7" t="n">
-        <v>7.9</v>
+        <v>7.62</v>
       </c>
       <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="n">
         <v>60</v>
-      </c>
-      <c r="K7" t="n">
-        <v>59</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="E11" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11" t="n">
-        <v>23.28</v>
+        <v>23.15</v>
       </c>
       <c r="H11" t="n">
-        <v>10.8</v>
+        <v>10.77</v>
       </c>
       <c r="I11" t="n">
-        <v>12.48</v>
+        <v>12.38</v>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K11" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="E16" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F16" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G16" t="n">
-        <v>18.1</v>
+        <v>18.16</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>9.1</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K16" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2563,37 +2563,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E17" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F17" t="n">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G17" t="n">
-        <v>15.1</v>
+        <v>15.81</v>
       </c>
       <c r="H17" t="n">
-        <v>5.65</v>
+        <v>6.1</v>
       </c>
       <c r="I17" t="n">
-        <v>9.449999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K17" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3018,34 +3018,34 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="E22" t="n">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="F22" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G22" t="n">
-        <v>21.14</v>
+        <v>22.32</v>
       </c>
       <c r="H22" t="n">
-        <v>9.289999999999999</v>
+        <v>10.55</v>
       </c>
       <c r="I22" t="n">
-        <v>11.86</v>
+        <v>11.77</v>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K22" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
@@ -3078,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3109,37 +3109,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F23" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G23" t="n">
-        <v>12.63</v>
+        <v>13.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>7.63</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3200,38 +3200,38 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="E24" t="n">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="F24" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G24" t="n">
-        <v>18.28</v>
+        <v>18.88</v>
       </c>
       <c r="H24" t="n">
-        <v>8.81</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>9.470000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="J24" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
         <v>124</v>
       </c>
       <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
         <v>6</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" t="n">
-        <v>14.93</v>
+        <v>14.38</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>6.63</v>
       </c>
       <c r="I4" t="n">
-        <v>8.130000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -3993,37 +3993,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E6" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F6" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G6" t="n">
-        <v>17.74</v>
+        <v>17.9</v>
       </c>
       <c r="H6" t="n">
-        <v>8.26</v>
+        <v>8.35</v>
       </c>
       <c r="I6" t="n">
-        <v>9.470000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4175,37 +4175,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="F8" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G8" t="n">
-        <v>15.39</v>
+        <v>16.17</v>
       </c>
       <c r="H8" t="n">
-        <v>5.86</v>
+        <v>6.79</v>
       </c>
       <c r="I8" t="n">
-        <v>9.539999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K8" t="n">
         <v>106</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="E9" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F9" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G9" t="n">
-        <v>18.75</v>
+        <v>18.66</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>10.75</v>
+        <v>10.66</v>
       </c>
       <c r="J9" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K9" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="E12" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F12" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G12" t="n">
-        <v>17.33</v>
+        <v>17.29</v>
       </c>
       <c r="H12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>9.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K12" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5085,37 +5085,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F18" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G18" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>7.85</v>
+        <v>7.91</v>
       </c>
       <c r="I18" t="n">
-        <v>9.029999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="J18" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K18" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5358,37 +5358,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="E21" t="n">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F21" t="n">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>19.32</v>
       </c>
       <c r="H21" t="n">
-        <v>7.94</v>
+        <v>8.15</v>
       </c>
       <c r="I21" t="n">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
       <c r="J21" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K21" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -5418,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5449,34 +5449,34 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="E22" t="n">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F22" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G22" t="n">
-        <v>18.74</v>
+        <v>19.92</v>
       </c>
       <c r="H22" t="n">
-        <v>9.43</v>
+        <v>10.58</v>
       </c>
       <c r="I22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="J22" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K22" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5540,37 +5540,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F23" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G23" t="n">
-        <v>15.41</v>
+        <v>16.67</v>
       </c>
       <c r="H23" t="n">
-        <v>7.53</v>
+        <v>8.94</v>
       </c>
       <c r="I23" t="n">
-        <v>7.88</v>
+        <v>7.72</v>
       </c>
       <c r="J23" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K23" t="n">
         <v>62</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5631,37 +5631,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="E24" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F24" t="n">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G24" t="n">
-        <v>17.27</v>
+        <v>17.65</v>
       </c>
       <c r="H24" t="n">
-        <v>6.94</v>
+        <v>7.18</v>
       </c>
       <c r="I24" t="n">
-        <v>10.33</v>
+        <v>10.47</v>
       </c>
       <c r="J24" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K24" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>16</v>
       </c>
       <c r="W24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5722,31 +5722,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E25" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>17.1</v>
+        <v>16.09</v>
       </c>
       <c r="H25" t="n">
-        <v>10.1</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="J25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 07:07:27</t>
+          <t>2025-12-07 23:10:51</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-07 23:10:51</t>
+          <t>2025-12-09 03:02:57</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-09 03:02:57</t>
+          <t>2025-12-09 07:02:50</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-09 07:02:50</t>
+          <t>2025-12-10 03:02:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-10 03:02:38</t>
+          <t>2025-12-10 07:02:50</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-10 07:02:50</t>
+          <t>2025-12-11 03:02:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-11 03:02:38</t>
+          <t>2025-12-11 07:02:19</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-11 07:02:19</t>
+          <t>2025-12-12 03:03:16</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-12 03:03:16</t>
+          <t>2025-12-12 07:02:38</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-12 07:02:38</t>
+          <t>2025-12-13 03:02:44</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-13 03:02:44</t>
+          <t>2025-12-13 07:02:53</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-13 07:02:53</t>
+          <t>2025-12-14 03:04:13</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-14 03:04:13</t>
+          <t>2025-12-14 07:02:27</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-14 07:02:27</t>
+          <t>2025-12-15 03:02:30</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-15 03:02:30</t>
+          <t>2025-12-15 07:02:35</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-15 07:02:35</t>
+          <t>2025-12-16 03:09:53</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 03:09:53</t>
+          <t>2025-12-16 07:07:20</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 07:07:20</t>
+          <t>2025-12-16 07:29:26</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F2" t="n">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G2" t="n">
-        <v>22.77</v>
+        <v>22.58</v>
       </c>
       <c r="H2" t="n">
-        <v>10.09</v>
+        <v>10.03</v>
       </c>
       <c r="I2" t="n">
-        <v>12.69</v>
+        <v>12.56</v>
       </c>
       <c r="J2" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E3" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F3" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G3" t="n">
-        <v>17.03</v>
+        <v>16.94</v>
       </c>
       <c r="H3" t="n">
-        <v>7.78</v>
+        <v>7.67</v>
       </c>
       <c r="I3" t="n">
-        <v>9.25</v>
+        <v>9.27</v>
       </c>
       <c r="J3" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K3" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E5" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F5" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G5" t="n">
-        <v>15.72</v>
+        <v>15.61</v>
       </c>
       <c r="H5" t="n">
-        <v>7.88</v>
+        <v>7.76</v>
       </c>
       <c r="I5" t="n">
-        <v>7.84</v>
+        <v>7.85</v>
       </c>
       <c r="J5" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K5" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>4</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1653,37 +1653,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E7" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F7" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G7" t="n">
-        <v>13.76</v>
+        <v>14.05</v>
       </c>
       <c r="H7" t="n">
-        <v>6.14</v>
+        <v>6.45</v>
       </c>
       <c r="I7" t="n">
-        <v>7.62</v>
+        <v>7.59</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E9" t="n">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F9" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G9" t="n">
-        <v>15.44</v>
+        <v>15.52</v>
       </c>
       <c r="H9" t="n">
-        <v>8.09</v>
+        <v>8.33</v>
       </c>
       <c r="I9" t="n">
-        <v>7.34</v>
+        <v>7.18</v>
       </c>
       <c r="J9" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K9" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1892,13 +1892,13 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W9" t="n">
         <v>30</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E12" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F12" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>16.62</v>
+        <v>16.68</v>
       </c>
       <c r="H12" t="n">
-        <v>7.19</v>
+        <v>7.59</v>
       </c>
       <c r="I12" t="n">
-        <v>9.43</v>
+        <v>9.09</v>
       </c>
       <c r="J12" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K12" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E14" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F14" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G14" t="n">
-        <v>13.71</v>
+        <v>13.64</v>
       </c>
       <c r="H14" t="n">
-        <v>7.19</v>
+        <v>7.05</v>
       </c>
       <c r="I14" t="n">
-        <v>6.52</v>
+        <v>6.59</v>
       </c>
       <c r="J14" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2654,31 +2654,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F18" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G18" t="n">
-        <v>17.45</v>
+        <v>17.03</v>
       </c>
       <c r="H18" t="n">
-        <v>8.390000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="I18" t="n">
-        <v>9.06</v>
+        <v>8.84</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="E20" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F20" t="n">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="G20" t="n">
-        <v>16.87</v>
+        <v>16.78</v>
       </c>
       <c r="H20" t="n">
-        <v>7.42</v>
+        <v>7.31</v>
       </c>
       <c r="I20" t="n">
-        <v>9.449999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -2896,7 +2896,7 @@
         <v>16</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E21" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F21" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G21" t="n">
-        <v>14.21</v>
+        <v>14.27</v>
       </c>
       <c r="H21" t="n">
-        <v>6.41</v>
+        <v>6.47</v>
       </c>
       <c r="I21" t="n">
-        <v>7.79</v>
+        <v>7.8</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3200,31 +3200,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="E24" t="n">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F24" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G24" t="n">
-        <v>18.88</v>
+        <v>18.79</v>
       </c>
       <c r="H24" t="n">
-        <v>9.550000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="I24" t="n">
-        <v>9.33</v>
+        <v>9.24</v>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K24" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
@@ -3260,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="W24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X24" t="n">
         <v>2</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E25" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F25" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G25" t="n">
-        <v>15.59</v>
+        <v>15.42</v>
       </c>
       <c r="H25" t="n">
-        <v>7.56</v>
+        <v>7.52</v>
       </c>
       <c r="I25" t="n">
-        <v>8.029999999999999</v>
+        <v>7.91</v>
       </c>
       <c r="J25" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K25" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3351,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3382,37 +3382,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E26" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F26" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G26" t="n">
-        <v>20.31</v>
+        <v>20.29</v>
       </c>
       <c r="H26" t="n">
-        <v>9.08</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>11.23</v>
+        <v>10.93</v>
       </c>
       <c r="J26" t="n">
+        <v>58</v>
+      </c>
+      <c r="K26" t="n">
         <v>54</v>
       </c>
-      <c r="K26" t="n">
-        <v>53</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3629,37 +3629,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="E2" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F2" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G2" t="n">
-        <v>19.3</v>
+        <v>19.33</v>
       </c>
       <c r="H2" t="n">
-        <v>8.6</v>
+        <v>8.81</v>
       </c>
       <c r="I2" t="n">
-        <v>10.7</v>
+        <v>10.52</v>
       </c>
       <c r="J2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="E3" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F3" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G3" t="n">
-        <v>16.69</v>
+        <v>16.61</v>
       </c>
       <c r="H3" t="n">
-        <v>8.630000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="I3" t="n">
-        <v>8.06</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -3780,7 +3780,7 @@
         <v>16</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>2</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3811,31 +3811,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F4" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>14.38</v>
+        <v>14.47</v>
       </c>
       <c r="H4" t="n">
-        <v>6.63</v>
+        <v>6.71</v>
       </c>
       <c r="I4" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="J4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4084,31 +4084,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F7" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G7" t="n">
-        <v>19.11</v>
+        <v>18.95</v>
       </c>
       <c r="H7" t="n">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="I7" t="n">
-        <v>11.21</v>
+        <v>11.05</v>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K7" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="E9" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F9" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>18.66</v>
+        <v>18.57</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.07</v>
       </c>
       <c r="I9" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K9" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -4326,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>2</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4539,31 +4539,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E12" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F12" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G12" t="n">
-        <v>17.29</v>
+        <v>16.83</v>
       </c>
       <c r="H12" t="n">
-        <v>8.289999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>8.76</v>
       </c>
       <c r="J12" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4812,31 +4812,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="E15" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>18.89</v>
       </c>
       <c r="H15" t="n">
-        <v>9.74</v>
+        <v>9.75</v>
       </c>
       <c r="I15" t="n">
-        <v>9.26</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K15" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -4872,7 +4872,7 @@
         <v>14</v>
       </c>
       <c r="W15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E16" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F16" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G16" t="n">
-        <v>16.13</v>
+        <v>15.94</v>
       </c>
       <c r="H16" t="n">
-        <v>7.47</v>
+        <v>7.42</v>
       </c>
       <c r="I16" t="n">
-        <v>8.67</v>
+        <v>8.52</v>
       </c>
       <c r="J16" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K16" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -4963,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E19" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F19" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G19" t="n">
-        <v>16.03</v>
+        <v>15.83</v>
       </c>
       <c r="H19" t="n">
-        <v>7.72</v>
+        <v>7.67</v>
       </c>
       <c r="I19" t="n">
-        <v>8.31</v>
+        <v>8.17</v>
       </c>
       <c r="J19" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5236,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="W19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E20" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F20" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" t="n">
-        <v>15.26</v>
+        <v>15.4</v>
       </c>
       <c r="H20" t="n">
-        <v>7.84</v>
+        <v>8.25</v>
       </c>
       <c r="I20" t="n">
-        <v>7.42</v>
+        <v>7.15</v>
       </c>
       <c r="J20" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5324,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>4</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5540,37 +5540,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E23" t="n">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F23" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G23" t="n">
-        <v>16.67</v>
+        <v>16.84</v>
       </c>
       <c r="H23" t="n">
-        <v>8.94</v>
+        <v>9.16</v>
       </c>
       <c r="I23" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="J23" t="n">
+        <v>67</v>
+      </c>
+      <c r="K23" t="n">
         <v>63</v>
       </c>
-      <c r="K23" t="n">
-        <v>62</v>
-      </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5631,31 +5631,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E24" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F24" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G24" t="n">
-        <v>17.65</v>
+        <v>17.26</v>
       </c>
       <c r="H24" t="n">
-        <v>7.18</v>
+        <v>7.03</v>
       </c>
       <c r="I24" t="n">
-        <v>10.47</v>
+        <v>10.23</v>
       </c>
       <c r="J24" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>
@@ -5813,31 +5813,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="E26" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F26" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G26" t="n">
-        <v>19.72</v>
+        <v>19.67</v>
       </c>
       <c r="H26" t="n">
-        <v>8.550000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>11.17</v>
+        <v>10.87</v>
       </c>
       <c r="J26" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K26" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5870,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-16 07:29:26</t>
+          <t>2025-12-17 03:03:56</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 03:03:56</t>
+          <t>2025-12-17 04:00:08</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 04:00:08</t>
+          <t>2025-12-17 07:03:58</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 07:03:58</t>
+          <t>2025-12-17 11:08:21</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E10" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F10" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G10" t="n">
-        <v>17.43</v>
+        <v>17.36</v>
       </c>
       <c r="H10" t="n">
-        <v>8.76</v>
+        <v>8.82</v>
       </c>
       <c r="I10" t="n">
-        <v>8.67</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K10" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="E11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F11" t="n">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G11" t="n">
-        <v>23.15</v>
+        <v>23.04</v>
       </c>
       <c r="H11" t="n">
-        <v>10.77</v>
+        <v>10.74</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38</v>
+        <v>12.3</v>
       </c>
       <c r="J11" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="E15" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F15" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G15" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>8.52</v>
+        <v>8.59</v>
       </c>
       <c r="I15" t="n">
-        <v>9.380000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="J15" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K15" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="E22" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F22" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G22" t="n">
-        <v>22.32</v>
+        <v>22.04</v>
       </c>
       <c r="H22" t="n">
-        <v>10.55</v>
+        <v>10.52</v>
       </c>
       <c r="I22" t="n">
-        <v>11.77</v>
+        <v>11.52</v>
       </c>
       <c r="J22" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K22" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -3078,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E6" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F6" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>8.35</v>
+        <v>8.43</v>
       </c>
       <c r="I6" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="J6" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4448,31 +4448,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F11" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G11" t="n">
-        <v>13.71</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>6.19</v>
+        <v>6.36</v>
       </c>
       <c r="I11" t="n">
-        <v>7.52</v>
+        <v>7.64</v>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -4994,31 +4994,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E17" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G17" t="n">
-        <v>17.88</v>
+        <v>17.76</v>
       </c>
       <c r="H17" t="n">
         <v>9.94</v>
       </c>
       <c r="I17" t="n">
-        <v>7.94</v>
+        <v>7.82</v>
       </c>
       <c r="J17" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K17" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5449,31 +5449,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="E22" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F22" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G22" t="n">
-        <v>19.92</v>
+        <v>19.76</v>
       </c>
       <c r="H22" t="n">
-        <v>10.58</v>
+        <v>10.56</v>
       </c>
       <c r="I22" t="n">
-        <v>9.33</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K22" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -5509,7 +5509,7 @@
         <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-17 11:08:21</t>
+          <t>2025-12-18 03:04:27</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 03:04:27</t>
+          <t>2025-12-18 04:40:32</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 04:40:32</t>
+          <t>2025-12-18 07:04:18</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E4" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F4" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G4" t="n">
-        <v>16.04</v>
+        <v>15.88</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.88</v>
       </c>
       <c r="I4" t="n">
-        <v>9.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="E6" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F6" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G6" t="n">
-        <v>17.09</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>8.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>8.970000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K6" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="E8" t="n">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F8" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G8" t="n">
-        <v>19.57</v>
+        <v>20.03</v>
       </c>
       <c r="H8" t="n">
-        <v>9.93</v>
+        <v>10.45</v>
       </c>
       <c r="I8" t="n">
-        <v>9.630000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="J8" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K8" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X8" t="n">
         <v>2</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2199,31 +2199,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E13" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
-        <v>15.58</v>
+        <v>15.15</v>
       </c>
       <c r="H13" t="n">
-        <v>8.67</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>6.92</v>
+        <v>6.69</v>
       </c>
       <c r="J13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F16" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G16" t="n">
-        <v>18.16</v>
+        <v>18.03</v>
       </c>
       <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="I16" t="n">
-        <v>9.130000000000001</v>
-      </c>
       <c r="J16" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K16" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2563,31 +2563,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E17" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G17" t="n">
-        <v>15.81</v>
+        <v>15.64</v>
       </c>
       <c r="H17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.710000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K17" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2836,31 +2836,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="E20" t="n">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F20" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G20" t="n">
-        <v>16.78</v>
+        <v>16.82</v>
       </c>
       <c r="H20" t="n">
-        <v>7.31</v>
+        <v>7.45</v>
       </c>
       <c r="I20" t="n">
-        <v>9.470000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K20" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -2893,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="E21" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F21" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G21" t="n">
-        <v>14.27</v>
+        <v>14.58</v>
       </c>
       <c r="H21" t="n">
-        <v>6.47</v>
+        <v>6.58</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K21" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2984,10 +2984,10 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3291,31 +3291,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E25" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F25" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G25" t="n">
-        <v>15.42</v>
+        <v>15.5</v>
       </c>
       <c r="H25" t="n">
-        <v>7.52</v>
+        <v>7.65</v>
       </c>
       <c r="I25" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="J25" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K25" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3348,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3382,32 +3382,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="E26" t="n">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F26" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G26" t="n">
-        <v>20.29</v>
+        <v>21.2</v>
       </c>
       <c r="H26" t="n">
-        <v>9.359999999999999</v>
+        <v>10.47</v>
       </c>
       <c r="I26" t="n">
-        <v>10.93</v>
+        <v>10.73</v>
       </c>
       <c r="J26" t="n">
+        <v>61</v>
+      </c>
+      <c r="K26" t="n">
         <v>58</v>
       </c>
-      <c r="K26" t="n">
-        <v>54</v>
-      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3629,31 +3629,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F2" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G2" t="n">
-        <v>19.33</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>8.81</v>
+        <v>9.59</v>
       </c>
       <c r="I2" t="n">
-        <v>10.52</v>
+        <v>10.41</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K2" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -3689,7 +3689,7 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3720,31 +3720,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="E3" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F3" t="n">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G3" t="n">
-        <v>16.61</v>
+        <v>16.82</v>
       </c>
       <c r="H3" t="n">
-        <v>8.48</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>8.119999999999999</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K3" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -3777,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X3" t="n">
         <v>2</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4721,31 +4721,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F14" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>16.06</v>
       </c>
       <c r="H14" t="n">
-        <v>8.17</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>7.83</v>
+        <v>7.77</v>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K14" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -4778,10 +4778,10 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>2</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -4903,31 +4903,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="E16" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G16" t="n">
-        <v>15.94</v>
+        <v>15.88</v>
       </c>
       <c r="H16" t="n">
-        <v>7.42</v>
+        <v>7.44</v>
       </c>
       <c r="I16" t="n">
-        <v>8.52</v>
+        <v>8.44</v>
       </c>
       <c r="J16" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5176,31 +5176,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E19" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F19" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G19" t="n">
-        <v>15.83</v>
+        <v>15.77</v>
       </c>
       <c r="H19" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="I19" t="n">
-        <v>8.17</v>
+        <v>8.1</v>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K19" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="E20" t="n">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F20" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G20" t="n">
-        <v>15.4</v>
+        <v>16.29</v>
       </c>
       <c r="H20" t="n">
-        <v>8.25</v>
+        <v>9.1</v>
       </c>
       <c r="I20" t="n">
-        <v>7.15</v>
+        <v>7.19</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>2</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 07:04:18</t>
+          <t>2025-12-18 23:30:06</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-12-18 23:30:06</t>
+          <t>2025-12-19 03:03:23</t>
         </is>
       </c>
     </row>

--- a/khl/khl_referees_stats_1369.xlsx
+++ b/khl/khl_referees_stats_1369.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-12-19 03:03:23</t>
+          <t>2025-12-19 07:03:24</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @